--- a/web/reporte_proyectos.xlsx
+++ b/web/reporte_proyectos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1012">
   <si>
     <t>#</t>
   </si>
@@ -1592,6 +1592,261 @@
     <t>Carmennancyflores@gmail.com</t>
   </si>
   <si>
+    <t>IMPLEMENTACION DE PLANES PROFILACTICOS Y MANEJO TECNICO EN  EL CENTRO DE DESARROLLO DE LA AGRICULTURA FAMILIAR (CEDAF)</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>CENTRO DE DESARROLLO DE AGRICULTURA FAMILIAR, MORAZÁN (CEDAF)</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS GUEVARA ESCOLERO</t>
+  </si>
+  <si>
+    <t>U20110400</t>
+  </si>
+  <si>
+    <t>7740-3909</t>
+  </si>
+  <si>
+    <t>juank_0400@hotmail.com</t>
+  </si>
+  <si>
+    <t>INSPECCIÓN DE LAS MEDIDAS DE BIOSEGURIDAD Y LAS ETAPAS DEL  FAENADO EN EL SACRIFICIO DE LOS BOVINOS Y PORCINOS ANTE_x0002_MORTEM Y POST-MORTEM EN EL RASTRO MUNICIPAL DE SAN MIGUEL.</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>KEVIN RAFAEL RODRÍGUEZ NATIVI</t>
+  </si>
+  <si>
+    <t>U20160595</t>
+  </si>
+  <si>
+    <t>7541-3908</t>
+  </si>
+  <si>
+    <t>rodrigueznativikevinrafael@gmail.com</t>
+  </si>
+  <si>
+    <t>PROYECTO DE APOYO AL CENTRO DE ENRIQUECIMIENTO ACADÉMICO CEA. FACULTAD DE CIENCIAS Y HUMANIDADES, UNIVO.</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>YENIFER CAROLINA PORTILLO BENAVIDES</t>
+  </si>
+  <si>
+    <t>U20250639</t>
+  </si>
+  <si>
+    <t>7283-4791</t>
+  </si>
+  <si>
+    <t>Portillokarol11@gmail.com</t>
+  </si>
+  <si>
+    <t>JENIFER LISSETH HERNANDEZ GRANADOS.</t>
+  </si>
+  <si>
+    <t>U20251316</t>
+  </si>
+  <si>
+    <t>6025-3656</t>
+  </si>
+  <si>
+    <t>Elizabethgranados1902@gmail.com</t>
+  </si>
+  <si>
+    <t>KELLY VANESSA PERLA FLORES.</t>
+  </si>
+  <si>
+    <t>U20250631</t>
+  </si>
+  <si>
+    <t>7259-2227</t>
+  </si>
+  <si>
+    <t>perlafloreskellyvanessa@gmail.com</t>
+  </si>
+  <si>
+    <t>KELLYN MILADIS HERNÁNDEZ GARCIA.</t>
+  </si>
+  <si>
+    <t>U20250754</t>
+  </si>
+  <si>
+    <t>6935-4880</t>
+  </si>
+  <si>
+    <t>kmhg052504@gmail.com</t>
+  </si>
+  <si>
+    <t>JUANA ESTEFANI ROMERO ZELAYA.</t>
+  </si>
+  <si>
+    <t>U20250650</t>
+  </si>
+  <si>
+    <t>7569-1561</t>
+  </si>
+  <si>
+    <t>juanistefani@gmail.com</t>
+  </si>
+  <si>
+    <t>DESARROLLO DE ESTRATEGIAS DE COMUNICACIÓN INSTITUCIONAL PARA EL  FORTALECIMIENTO DE LA IMAGEN MUNICIPAL DE LA ALCALDÍA  DE USULUTAN NORTE.</t>
+  </si>
+  <si>
+    <t>Alcaldía Municipal de Usulután Norte</t>
+  </si>
+  <si>
+    <t>ANA CECILIA BERNAL GOMEZ</t>
+  </si>
+  <si>
+    <t>U20220295</t>
+  </si>
+  <si>
+    <t>7065-1401</t>
+  </si>
+  <si>
+    <t>anber42003@gmail.com</t>
+  </si>
+  <si>
+    <t>ANDREA MARCELLA FLORES TURCIOS</t>
+  </si>
+  <si>
+    <t>U20220294</t>
+  </si>
+  <si>
+    <t>7545-8288</t>
+  </si>
+  <si>
+    <t>marcellafloresturcios24@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASISTENCIA TÉCNICA Y DESARROLLO DE IMAGEN COMERCIAL PARA GRUPO LORENA. </t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>GRUPO LORENA S.A DE C.V</t>
+  </si>
+  <si>
+    <t>Licenciatura en Mercadotecnia</t>
+  </si>
+  <si>
+    <t>WILBER DANIEL DIAZ TORRES</t>
+  </si>
+  <si>
+    <t>U20210289</t>
+  </si>
+  <si>
+    <t>7874-3176</t>
+  </si>
+  <si>
+    <t>wilberdiaz200211@gmail.com</t>
+  </si>
+  <si>
+    <t>DISEÑO GRÁFICO PARA EL FORTALECIMIENO DE EMPRENDIMIENTOS Y  EMPRESAS ASISTIDAS POR ADEL MORAZÁN</t>
+  </si>
+  <si>
+    <t>ASOCIACIÓN DE DESARROLLO ECONÓMICO LOCAL (ADEL), MORAZÁN</t>
+  </si>
+  <si>
+    <t>Técnico en Diseño Gráfico</t>
+  </si>
+  <si>
+    <t>DANNA GISSELA PONCE</t>
+  </si>
+  <si>
+    <t>U20240624</t>
+  </si>
+  <si>
+    <t>7270-8912</t>
+  </si>
+  <si>
+    <t>poncedanna04@gmail.com</t>
+  </si>
+  <si>
+    <t>DISEÑO DE AULAS ESTUDIANTIL, AREA DE COMEDOR Y ACCESOS DE  EVACUACIÓN.</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>2025-06-11</t>
+  </si>
+  <si>
+    <t>COMPLEJO EDUCATIVO CATÓLICO ESPÍRITU SANTO</t>
+  </si>
+  <si>
+    <t>Ingeniería Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUNIOR JAVIER SANCHEZ MARTINEZ </t>
+  </si>
+  <si>
+    <t>U20140833</t>
+  </si>
+  <si>
+    <t>7516-6548</t>
+  </si>
+  <si>
+    <t>juniorsan0795@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEVANTAMIENTO TOPOGRAFICO PARA LA CONSTRUCCIÓN DEL  TEMPLO DE LA COMUNIDAD CATOLICA INMACULADA CONCEPCIÓN. </t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>COMUNIDAD CATÓLICA INMACULADA CONCEPCIÓN</t>
+  </si>
+  <si>
+    <t>OSCAR ALEXANDER CUELLAR MÁRQUEZ</t>
+  </si>
+  <si>
+    <t>U20210586</t>
+  </si>
+  <si>
+    <t>7629-6646</t>
+  </si>
+  <si>
+    <t>om8052235@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROBERTO ANDREE SILIS CAMPOS</t>
+  </si>
+  <si>
+    <t>U20210818</t>
+  </si>
+  <si>
+    <t>7273-8254</t>
+  </si>
+  <si>
+    <t>silis2003@outlook.com</t>
+  </si>
+  <si>
     <t>APOYO PSICOLÓGICO Y ACADÉMICO A LOS ESTUDIANTES DE LA UNIVERSIDAD DE ORIENTE EN LA CIUDAD DE SAN MIGUEL.</t>
   </si>
   <si>
@@ -1970,9 +2225,6 @@
     <t>17/2025</t>
   </si>
   <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
     <t>CONSEJO NACIONAL DE LA PRIMERA INFANCIA, NIÑEZ Y ADOLESCENCIA (CONAPINA), MORAZÁN</t>
   </si>
   <si>
@@ -2514,9 +2766,6 @@
   </si>
   <si>
     <t>2025-02-24</t>
-  </si>
-  <si>
-    <t>2025-05-20</t>
   </si>
   <si>
     <t>DEPARTAMENTAL DE EDUCACIÓN DE SAN MIGUEL</t>
@@ -3140,7 +3389,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q155"/>
+  <dimension ref="A1:Q169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6408,49 +6657,47 @@
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
         <v>525</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86"/>
+      <c r="F86" t="s">
         <v>526</v>
-      </c>
-      <c r="F86" t="s">
-        <v>89</v>
       </c>
       <c r="G86" t="s">
         <v>527</v>
       </c>
       <c r="H86" t="s">
-        <v>22</v>
+        <v>528</v>
       </c>
       <c r="I86" t="s">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c r="J86" t="s">
-        <v>404</v>
+        <v>295</v>
       </c>
       <c r="K86">
-        <v>974.05</v>
+        <v>856.9</v>
       </c>
       <c r="L86">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="M86" t="s">
         <v>25</v>
       </c>
       <c r="N86" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O86" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P86" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q86" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -6464,11 +6711,9 @@
         <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>532</v>
-      </c>
-      <c r="E87" t="s">
         <v>533</v>
       </c>
+      <c r="E87"/>
       <c r="F87" t="s">
         <v>534</v>
       </c>
@@ -6476,34 +6721,34 @@
         <v>535</v>
       </c>
       <c r="H87" t="s">
-        <v>536</v>
+        <v>316</v>
       </c>
       <c r="I87" t="s">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c r="J87" t="s">
-        <v>404</v>
+        <v>295</v>
       </c>
       <c r="K87">
-        <v>1749.0</v>
+        <v>882.75</v>
       </c>
       <c r="L87">
-        <v>100</v>
+        <v>434003</v>
       </c>
       <c r="M87" t="s">
         <v>25</v>
       </c>
       <c r="N87" t="s">
+        <v>536</v>
+      </c>
+      <c r="O87" t="s">
         <v>537</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>538</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>539</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -6511,643 +6756,413 @@
         <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
+        <v>540</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88" t="s">
         <v>541</v>
       </c>
-      <c r="E88" t="s">
+      <c r="G88" t="s">
         <v>542</v>
       </c>
-      <c r="F88" t="s">
-        <v>543</v>
-      </c>
-      <c r="G88" t="s">
-        <v>414</v>
-      </c>
       <c r="H88" t="s">
-        <v>544</v>
+        <v>438</v>
       </c>
       <c r="I88" t="s">
         <v>23</v>
       </c>
       <c r="J88" t="s">
-        <v>404</v>
+        <v>243</v>
       </c>
       <c r="K88">
-        <v>759.0</v>
+        <v>1649.45</v>
       </c>
       <c r="L88">
-        <v>170</v>
+        <v>1361</v>
       </c>
       <c r="M88" t="s">
         <v>25</v>
       </c>
       <c r="N88" t="s">
+        <v>543</v>
+      </c>
+      <c r="O88" t="s">
+        <v>544</v>
+      </c>
+      <c r="P88" t="s">
         <v>545</v>
       </c>
-      <c r="O88" t="s">
+      <c r="Q88" t="s">
         <v>546</v>
       </c>
-      <c r="P88" t="s">
+    </row>
+    <row r="89" spans="1:17">
+      <c r="N89" t="s">
         <v>547</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="O89" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89">
-        <v>61</v>
-      </c>
-      <c r="B89" t="s">
-        <v>59</v>
-      </c>
-      <c r="C89"/>
-      <c r="D89" t="s">
-        <v>60</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="P89" t="s">
         <v>549</v>
       </c>
-      <c r="F89" t="s">
-        <v>61</v>
-      </c>
-      <c r="G89" t="s">
-        <v>62</v>
-      </c>
-      <c r="H89" t="s">
-        <v>63</v>
-      </c>
-      <c r="I89" t="s">
-        <v>23</v>
-      </c>
-      <c r="J89" t="s">
-        <v>415</v>
-      </c>
-      <c r="K89">
-        <v>781.0</v>
-      </c>
-      <c r="L89">
-        <v>170</v>
-      </c>
-      <c r="M89" t="s">
-        <v>25</v>
+      <c r="Q89" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="90" spans="1:17">
-      <c r="A90">
-        <v>62</v>
-      </c>
-      <c r="B90" t="s">
-        <v>59</v>
-      </c>
-      <c r="C90"/>
-      <c r="D90" t="s">
-        <v>60</v>
-      </c>
-      <c r="E90" t="s">
-        <v>549</v>
-      </c>
-      <c r="F90" t="s">
-        <v>61</v>
-      </c>
-      <c r="G90" t="s">
-        <v>62</v>
-      </c>
-      <c r="H90" t="s">
-        <v>63</v>
-      </c>
-      <c r="I90" t="s">
-        <v>23</v>
-      </c>
-      <c r="J90" t="s">
-        <v>415</v>
-      </c>
-      <c r="K90">
-        <v>781.0</v>
-      </c>
-      <c r="L90">
-        <v>170</v>
-      </c>
-      <c r="M90" t="s">
-        <v>25</v>
-      </c>
       <c r="N90" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O90" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P90" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q90" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91">
-        <v>63</v>
-      </c>
-      <c r="B91" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91"/>
-      <c r="D91" t="s">
-        <v>554</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="N91" t="s">
         <v>555</v>
       </c>
-      <c r="F91" t="s">
+      <c r="O91" t="s">
         <v>556</v>
       </c>
-      <c r="G91" t="s">
+      <c r="P91" t="s">
         <v>557</v>
       </c>
-      <c r="H91" t="s">
+      <c r="Q91" t="s">
         <v>558</v>
       </c>
-      <c r="I91" t="s">
-        <v>23</v>
-      </c>
-      <c r="J91" t="s">
+    </row>
+    <row r="92" spans="1:17">
+      <c r="N92" t="s">
         <v>559</v>
       </c>
-      <c r="K91">
-        <v>544.67</v>
-      </c>
-      <c r="L91">
-        <v>170</v>
-      </c>
-      <c r="M91" t="s">
-        <v>25</v>
-      </c>
-      <c r="N91" t="s">
+      <c r="O92" t="s">
         <v>560</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P92" t="s">
         <v>561</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q92" t="s">
         <v>562</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92">
-        <v>64</v>
-      </c>
-      <c r="B92" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" t="s">
-        <v>564</v>
-      </c>
-      <c r="E92" t="s">
-        <v>565</v>
-      </c>
-      <c r="F92" t="s">
-        <v>566</v>
-      </c>
-      <c r="G92" t="s">
-        <v>567</v>
-      </c>
-      <c r="H92" t="s">
-        <v>568</v>
-      </c>
-      <c r="I92" t="s">
-        <v>23</v>
-      </c>
-      <c r="J92" t="s">
-        <v>415</v>
-      </c>
-      <c r="K92">
-        <v>410.3</v>
-      </c>
-      <c r="L92">
-        <v>46</v>
-      </c>
-      <c r="M92" t="s">
-        <v>25</v>
-      </c>
-      <c r="N92" t="s">
-        <v>569</v>
-      </c>
-      <c r="O92" t="s">
-        <v>570</v>
-      </c>
-      <c r="P92" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>573</v>
-      </c>
-      <c r="E93" t="s">
-        <v>574</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="E93"/>
       <c r="F93" t="s">
-        <v>129</v>
+        <v>526</v>
       </c>
       <c r="G93" t="s">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="H93" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="I93" t="s">
         <v>23</v>
       </c>
       <c r="J93" t="s">
-        <v>415</v>
+        <v>24</v>
       </c>
       <c r="K93">
-        <v>1239.0</v>
+        <v>2156.0</v>
       </c>
       <c r="L93">
-        <v>135</v>
+        <v>5917</v>
       </c>
       <c r="M93" t="s">
         <v>25</v>
       </c>
       <c r="N93" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="O93" t="s">
-        <v>577</v>
-      </c>
-      <c r="P93">
-        <v>60237049</v>
+        <v>566</v>
+      </c>
+      <c r="P93" t="s">
+        <v>567</v>
       </c>
       <c r="Q93" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94">
-        <v>66</v>
-      </c>
-      <c r="B94" t="s">
-        <v>97</v>
-      </c>
-      <c r="C94" t="s">
-        <v>98</v>
-      </c>
-      <c r="D94" t="s">
-        <v>579</v>
-      </c>
-      <c r="E94" t="s">
-        <v>580</v>
-      </c>
-      <c r="F94" t="s">
-        <v>581</v>
-      </c>
-      <c r="G94" t="s">
-        <v>582</v>
-      </c>
-      <c r="H94" t="s">
-        <v>502</v>
-      </c>
-      <c r="I94" t="s">
-        <v>23</v>
-      </c>
-      <c r="J94" t="s">
-        <v>404</v>
-      </c>
-      <c r="K94">
-        <v>1139.05</v>
-      </c>
-      <c r="L94">
-        <v>225</v>
-      </c>
-      <c r="M94" t="s">
-        <v>25</v>
-      </c>
       <c r="N94" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="O94" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="P94" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="Q94" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B95" t="s">
         <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="D95" t="s">
-        <v>587</v>
-      </c>
-      <c r="E95" t="s">
-        <v>588</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="E95"/>
       <c r="F95" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="G95" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="H95" t="s">
-        <v>22</v>
+        <v>576</v>
       </c>
       <c r="I95" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="J95" t="s">
-        <v>24</v>
+        <v>577</v>
       </c>
       <c r="K95">
-        <v>1166.0</v>
+        <v>565.4</v>
       </c>
       <c r="L95">
-        <v>8000</v>
+        <v>5708</v>
       </c>
       <c r="M95" t="s">
         <v>25</v>
       </c>
       <c r="N95" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="O95" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="P95" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="Q95" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
-      </c>
-      <c r="C96" t="s">
-        <v>98</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C96"/>
       <c r="D96" t="s">
-        <v>594</v>
-      </c>
-      <c r="E96" t="s">
-        <v>595</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="E96"/>
       <c r="F96" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="G96" t="s">
-        <v>596</v>
+        <v>461</v>
       </c>
       <c r="H96" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="I96" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="J96" t="s">
-        <v>404</v>
+        <v>584</v>
       </c>
       <c r="K96">
-        <v>1177.0</v>
+        <v>742.5</v>
       </c>
       <c r="L96">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M96" t="s">
         <v>25</v>
       </c>
       <c r="N96" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="O96" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="P96" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="Q96" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="A97">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D97" t="s">
-        <v>602</v>
-      </c>
-      <c r="E97" t="s">
-        <v>603</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="E97"/>
       <c r="F97" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G97" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="H97" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="I97" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="J97" t="s">
-        <v>404</v>
+        <v>593</v>
       </c>
       <c r="K97">
-        <v>833.8</v>
+        <v>814.0</v>
       </c>
       <c r="L97">
-        <v>350</v>
+        <v>268</v>
       </c>
       <c r="M97" t="s">
         <v>25</v>
       </c>
       <c r="N97" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="O97" t="s">
-        <v>608</v>
-      </c>
-      <c r="P97">
-        <v>72237622</v>
+        <v>595</v>
+      </c>
+      <c r="P97" t="s">
+        <v>596</v>
       </c>
       <c r="Q97" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="A98">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D98" t="s">
-        <v>610</v>
-      </c>
-      <c r="E98" t="s">
-        <v>611</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="E98"/>
       <c r="F98" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="G98" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="H98" t="s">
-        <v>22</v>
+        <v>601</v>
       </c>
       <c r="I98" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="J98" t="s">
-        <v>230</v>
+        <v>593</v>
       </c>
       <c r="K98">
-        <v>715.0</v>
+        <v>1348.6</v>
       </c>
       <c r="L98">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M98" t="s">
         <v>25</v>
       </c>
       <c r="N98" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="O98" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="P98" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="Q98" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99">
-        <v>71</v>
-      </c>
-      <c r="B99" t="s">
-        <v>97</v>
-      </c>
-      <c r="C99" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" t="s">
-        <v>618</v>
-      </c>
-      <c r="E99" t="s">
-        <v>619</v>
-      </c>
-      <c r="F99" t="s">
-        <v>61</v>
-      </c>
-      <c r="G99" t="s">
-        <v>620</v>
-      </c>
-      <c r="H99" t="s">
-        <v>621</v>
-      </c>
-      <c r="I99" t="s">
-        <v>23</v>
-      </c>
-      <c r="J99" t="s">
-        <v>404</v>
-      </c>
-      <c r="K99">
-        <v>1434.4</v>
-      </c>
-      <c r="L99">
-        <v>460</v>
-      </c>
-      <c r="M99" t="s">
-        <v>25</v>
-      </c>
       <c r="N99" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="O99" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="P99" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="Q99" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="100" spans="1:17">
       <c r="A100">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="E100" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="F100" t="s">
-        <v>628</v>
+        <v>89</v>
       </c>
       <c r="G100" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="H100" t="s">
-        <v>621</v>
+        <v>22</v>
       </c>
       <c r="I100" t="s">
         <v>23</v>
@@ -7156,51 +7171,51 @@
         <v>404</v>
       </c>
       <c r="K100">
-        <v>896.05</v>
+        <v>974.05</v>
       </c>
       <c r="L100">
-        <v>400</v>
+        <v>235</v>
       </c>
       <c r="M100" t="s">
         <v>25</v>
       </c>
       <c r="N100" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="O100" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="P100" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="Q100" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
     </row>
     <row r="101" spans="1:17">
       <c r="A101">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B101" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="E101" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="F101" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="G101" t="s">
-        <v>130</v>
+        <v>620</v>
       </c>
       <c r="H101" t="s">
-        <v>242</v>
+        <v>621</v>
       </c>
       <c r="I101" t="s">
         <v>23</v>
@@ -7209,51 +7224,51 @@
         <v>404</v>
       </c>
       <c r="K101">
-        <v>690.8</v>
+        <v>1749.0</v>
       </c>
       <c r="L101">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="M101" t="s">
         <v>25</v>
       </c>
       <c r="N101" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="O101" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="P101" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="Q101" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
     </row>
     <row r="102" spans="1:17">
       <c r="A102">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C102" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D102" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="E102" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="F102" t="s">
-        <v>61</v>
+        <v>628</v>
       </c>
       <c r="G102" t="s">
-        <v>643</v>
+        <v>414</v>
       </c>
       <c r="H102" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="I102" t="s">
         <v>23</v>
@@ -7262,238 +7277,298 @@
         <v>404</v>
       </c>
       <c r="K102">
-        <v>2028.4</v>
+        <v>759.0</v>
       </c>
       <c r="L102">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="M102" t="s">
         <v>25</v>
       </c>
       <c r="N102" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="O102" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="P102" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="Q102" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
     </row>
     <row r="103" spans="1:17">
       <c r="A103">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" t="s">
-        <v>38</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C103"/>
       <c r="D103" t="s">
-        <v>649</v>
+        <v>60</v>
       </c>
       <c r="E103" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="F103" t="s">
-        <v>581</v>
+        <v>61</v>
       </c>
       <c r="G103" t="s">
-        <v>651</v>
+        <v>62</v>
       </c>
       <c r="H103" t="s">
-        <v>652</v>
+        <v>63</v>
       </c>
       <c r="I103" t="s">
         <v>23</v>
       </c>
       <c r="J103" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="K103">
-        <v>7263.3</v>
+        <v>781.0</v>
       </c>
       <c r="L103">
-        <v>850</v>
+        <v>170</v>
       </c>
       <c r="M103" t="s">
         <v>25</v>
       </c>
-      <c r="N103" t="s">
-        <v>653</v>
-      </c>
-      <c r="O103" t="s">
-        <v>654</v>
-      </c>
-      <c r="P103" t="s">
-        <v>655</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>656</v>
-      </c>
     </row>
     <row r="104" spans="1:17">
+      <c r="A104">
+        <v>70</v>
+      </c>
+      <c r="B104" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104"/>
+      <c r="D104" t="s">
+        <v>60</v>
+      </c>
+      <c r="E104" t="s">
+        <v>634</v>
+      </c>
+      <c r="F104" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" t="s">
+        <v>62</v>
+      </c>
+      <c r="H104" t="s">
+        <v>63</v>
+      </c>
+      <c r="I104" t="s">
+        <v>23</v>
+      </c>
+      <c r="J104" t="s">
+        <v>415</v>
+      </c>
+      <c r="K104">
+        <v>781.0</v>
+      </c>
+      <c r="L104">
+        <v>170</v>
+      </c>
+      <c r="M104" t="s">
+        <v>25</v>
+      </c>
       <c r="N104" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="O104" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="P104" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="Q104" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
     </row>
     <row r="105" spans="1:17">
+      <c r="A105">
+        <v>71</v>
+      </c>
+      <c r="B105" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105"/>
+      <c r="D105" t="s">
+        <v>639</v>
+      </c>
+      <c r="E105" t="s">
+        <v>640</v>
+      </c>
+      <c r="F105" t="s">
+        <v>641</v>
+      </c>
+      <c r="G105" t="s">
+        <v>642</v>
+      </c>
+      <c r="H105" t="s">
+        <v>643</v>
+      </c>
+      <c r="I105" t="s">
+        <v>23</v>
+      </c>
+      <c r="J105" t="s">
+        <v>644</v>
+      </c>
+      <c r="K105">
+        <v>544.67</v>
+      </c>
+      <c r="L105">
+        <v>170</v>
+      </c>
+      <c r="M105" t="s">
+        <v>25</v>
+      </c>
       <c r="N105" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="O105" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="P105" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="Q105" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
     <row r="106" spans="1:17">
       <c r="A106">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B106" t="s">
         <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="E106" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="F106" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="G106" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="H106" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I106" t="s">
         <v>23</v>
       </c>
       <c r="J106" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="K106">
-        <v>1398.1</v>
+        <v>410.3</v>
       </c>
       <c r="L106">
-        <v>800</v>
+        <v>46</v>
       </c>
       <c r="M106" t="s">
         <v>25</v>
       </c>
       <c r="N106" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="O106" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="P106" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="Q106" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
     </row>
     <row r="107" spans="1:17">
       <c r="A107">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D107" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="E107" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="F107" t="s">
-        <v>674</v>
+        <v>129</v>
       </c>
       <c r="G107" t="s">
-        <v>675</v>
+        <v>130</v>
       </c>
       <c r="H107" t="s">
-        <v>22</v>
+        <v>660</v>
       </c>
       <c r="I107" t="s">
         <v>23</v>
       </c>
       <c r="J107" t="s">
-        <v>676</v>
+        <v>415</v>
       </c>
       <c r="K107">
-        <v>646.8</v>
+        <v>1239.0</v>
       </c>
       <c r="L107">
-        <v>375</v>
+        <v>135</v>
       </c>
       <c r="M107" t="s">
         <v>25</v>
       </c>
       <c r="N107" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="O107" t="s">
-        <v>678</v>
-      </c>
-      <c r="P107" t="s">
-        <v>679</v>
+        <v>662</v>
+      </c>
+      <c r="P107">
+        <v>60237049</v>
       </c>
       <c r="Q107" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="A108">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D108" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="E108" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="F108" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="G108" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="H108" t="s">
-        <v>22</v>
+        <v>502</v>
       </c>
       <c r="I108" t="s">
         <v>23</v>
@@ -7502,134 +7577,290 @@
         <v>404</v>
       </c>
       <c r="K108">
-        <v>1883.2</v>
+        <v>1139.05</v>
       </c>
       <c r="L108">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M108" t="s">
         <v>25</v>
       </c>
       <c r="N108" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="O108" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="P108" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="Q108" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="A109">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B109" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="E109" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="F109" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="G109" t="s">
-        <v>582</v>
+        <v>674</v>
       </c>
       <c r="H109" t="s">
-        <v>494</v>
+        <v>22</v>
       </c>
       <c r="I109" t="s">
         <v>23</v>
       </c>
       <c r="J109" t="s">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="K109">
-        <v>1981.1</v>
+        <v>1166.0</v>
       </c>
       <c r="L109">
-        <v>430</v>
+        <v>8000</v>
       </c>
       <c r="M109" t="s">
         <v>25</v>
       </c>
       <c r="N109" t="s">
+        <v>675</v>
+      </c>
+      <c r="O109" t="s">
+        <v>676</v>
+      </c>
+      <c r="P109" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110">
+        <v>76</v>
+      </c>
+      <c r="B110" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" t="s">
+        <v>98</v>
+      </c>
+      <c r="D110" t="s">
+        <v>679</v>
+      </c>
+      <c r="E110" t="s">
+        <v>680</v>
+      </c>
+      <c r="F110" t="s">
+        <v>666</v>
+      </c>
+      <c r="G110" t="s">
+        <v>681</v>
+      </c>
+      <c r="H110" t="s">
+        <v>682</v>
+      </c>
+      <c r="I110" t="s">
+        <v>23</v>
+      </c>
+      <c r="J110" t="s">
+        <v>404</v>
+      </c>
+      <c r="K110">
+        <v>1177.0</v>
+      </c>
+      <c r="L110">
+        <v>73</v>
+      </c>
+      <c r="M110" t="s">
+        <v>25</v>
+      </c>
+      <c r="N110" t="s">
+        <v>683</v>
+      </c>
+      <c r="O110" t="s">
+        <v>684</v>
+      </c>
+      <c r="P110" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111">
+        <v>77</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" t="s">
+        <v>687</v>
+      </c>
+      <c r="E111" t="s">
+        <v>688</v>
+      </c>
+      <c r="F111" t="s">
+        <v>689</v>
+      </c>
+      <c r="G111" t="s">
         <v>690</v>
       </c>
-      <c r="O109" t="s">
+      <c r="H111" t="s">
         <v>691</v>
       </c>
-      <c r="P109" t="s">
+      <c r="I111" t="s">
+        <v>23</v>
+      </c>
+      <c r="J111" t="s">
+        <v>404</v>
+      </c>
+      <c r="K111">
+        <v>833.8</v>
+      </c>
+      <c r="L111">
+        <v>350</v>
+      </c>
+      <c r="M111" t="s">
+        <v>25</v>
+      </c>
+      <c r="N111" t="s">
         <v>692</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="O111" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="N110" t="s">
+      <c r="P111">
+        <v>72237622</v>
+      </c>
+      <c r="Q111" t="s">
         <v>694</v>
       </c>
-      <c r="O110" t="s">
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112">
+        <v>78</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" t="s">
         <v>695</v>
       </c>
-      <c r="P110" t="s">
+      <c r="E112" t="s">
         <v>696</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="F112" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="111" spans="1:17">
-      <c r="N111" t="s">
+      <c r="G112" t="s">
         <v>698</v>
       </c>
-      <c r="O111" t="s">
+      <c r="H112" t="s">
+        <v>22</v>
+      </c>
+      <c r="I112" t="s">
+        <v>23</v>
+      </c>
+      <c r="J112" t="s">
+        <v>230</v>
+      </c>
+      <c r="K112">
+        <v>715.0</v>
+      </c>
+      <c r="L112">
+        <v>15</v>
+      </c>
+      <c r="M112" t="s">
+        <v>25</v>
+      </c>
+      <c r="N112" t="s">
         <v>699</v>
       </c>
-      <c r="P111" t="s">
+      <c r="O112" t="s">
         <v>700</v>
       </c>
-      <c r="Q111" t="s">
+      <c r="P112" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="112" spans="1:17">
-      <c r="N112" t="s">
+      <c r="Q112" t="s">
         <v>702</v>
       </c>
-      <c r="O112" t="s">
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113">
+        <v>79</v>
+      </c>
+      <c r="B113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" t="s">
         <v>703</v>
       </c>
-      <c r="P112" t="s">
+      <c r="E113" t="s">
         <v>704</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="F113" t="s">
+        <v>61</v>
+      </c>
+      <c r="G113" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="113" spans="1:17">
+      <c r="H113" t="s">
+        <v>706</v>
+      </c>
+      <c r="I113" t="s">
+        <v>23</v>
+      </c>
+      <c r="J113" t="s">
+        <v>404</v>
+      </c>
+      <c r="K113">
+        <v>1434.4</v>
+      </c>
+      <c r="L113">
+        <v>460</v>
+      </c>
+      <c r="M113" t="s">
+        <v>25</v>
+      </c>
       <c r="N113" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O113" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P113" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Q113" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -7637,695 +7868,734 @@
         <v>80</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D114" t="s">
-        <v>30</v>
+        <v>711</v>
       </c>
       <c r="E114" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>713</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
       <c r="H114" t="s">
-        <v>22</v>
+        <v>706</v>
       </c>
       <c r="I114" t="s">
         <v>23</v>
       </c>
       <c r="J114" t="s">
-        <v>676</v>
+        <v>404</v>
       </c>
       <c r="K114">
-        <v>1815.0</v>
+        <v>896.05</v>
       </c>
       <c r="L114">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="M114" t="s">
-        <v>558</v>
+        <v>25</v>
       </c>
       <c r="N114" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="O114" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="P114" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="Q114" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="115" spans="1:17">
+      <c r="A115">
+        <v>81</v>
+      </c>
+      <c r="B115" t="s">
+        <v>97</v>
+      </c>
+      <c r="C115" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" t="s">
+        <v>719</v>
+      </c>
+      <c r="E115" t="s">
+        <v>720</v>
+      </c>
+      <c r="F115" t="s">
+        <v>721</v>
+      </c>
+      <c r="G115" t="s">
+        <v>130</v>
+      </c>
+      <c r="H115" t="s">
+        <v>242</v>
+      </c>
+      <c r="I115" t="s">
+        <v>23</v>
+      </c>
+      <c r="J115" t="s">
+        <v>404</v>
+      </c>
+      <c r="K115">
+        <v>690.8</v>
+      </c>
+      <c r="L115">
+        <v>600</v>
+      </c>
+      <c r="M115" t="s">
+        <v>25</v>
+      </c>
       <c r="N115" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="O115" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="P115" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="Q115" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="116" spans="1:17">
+      <c r="A116">
+        <v>82</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" t="s">
+        <v>726</v>
+      </c>
+      <c r="E116" t="s">
+        <v>727</v>
+      </c>
+      <c r="F116" t="s">
+        <v>61</v>
+      </c>
+      <c r="G116" t="s">
+        <v>728</v>
+      </c>
+      <c r="H116" t="s">
+        <v>729</v>
+      </c>
+      <c r="I116" t="s">
+        <v>23</v>
+      </c>
+      <c r="J116" t="s">
+        <v>404</v>
+      </c>
+      <c r="K116">
+        <v>2028.4</v>
+      </c>
+      <c r="L116">
+        <v>98</v>
+      </c>
+      <c r="M116" t="s">
+        <v>25</v>
+      </c>
       <c r="N116" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="O116" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="P116" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="Q116" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
     </row>
     <row r="117" spans="1:17">
       <c r="A117">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B117" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="E117" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="F117" t="s">
-        <v>725</v>
+        <v>666</v>
       </c>
       <c r="G117" t="s">
-        <v>130</v>
+        <v>542</v>
       </c>
       <c r="H117" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="I117" t="s">
         <v>23</v>
       </c>
       <c r="J117" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="K117">
-        <v>594.0</v>
+        <v>7263.3</v>
       </c>
       <c r="L117">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="M117" t="s">
         <v>25</v>
       </c>
       <c r="N117" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="O117" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="P117" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="Q117" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
     </row>
     <row r="118" spans="1:17">
       <c r="N118" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="O118" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="P118" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="Q118" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
     </row>
     <row r="119" spans="1:17">
-      <c r="A119">
-        <v>82</v>
-      </c>
-      <c r="B119" t="s">
-        <v>97</v>
-      </c>
-      <c r="C119" t="s">
-        <v>98</v>
-      </c>
-      <c r="D119" t="s">
-        <v>735</v>
-      </c>
-      <c r="E119" t="s">
-        <v>736</v>
-      </c>
-      <c r="F119" t="s">
-        <v>71</v>
-      </c>
-      <c r="G119" t="s">
-        <v>130</v>
-      </c>
-      <c r="H119" t="s">
-        <v>737</v>
-      </c>
-      <c r="I119" t="s">
-        <v>23</v>
-      </c>
-      <c r="J119" t="s">
-        <v>415</v>
-      </c>
-      <c r="K119">
-        <v>2475.0</v>
-      </c>
-      <c r="L119">
-        <v>70</v>
-      </c>
-      <c r="M119" t="s">
-        <v>25</v>
-      </c>
       <c r="N119" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="O119" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="P119" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="Q119" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B120" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D120" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="E120" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="F120" t="s">
-        <v>227</v>
+        <v>751</v>
       </c>
       <c r="G120" t="s">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="H120" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="I120" t="s">
         <v>23</v>
       </c>
       <c r="J120" t="s">
-        <v>230</v>
+        <v>404</v>
       </c>
       <c r="K120">
-        <v>2277.0</v>
+        <v>1398.1</v>
       </c>
       <c r="L120">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="M120" t="s">
         <v>25</v>
       </c>
       <c r="N120" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="O120" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="P120" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="Q120" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="121" spans="1:17">
+      <c r="A121">
+        <v>85</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s">
+        <v>756</v>
+      </c>
+      <c r="E121" t="s">
+        <v>757</v>
+      </c>
+      <c r="F121" t="s">
+        <v>758</v>
+      </c>
+      <c r="G121" t="s">
+        <v>759</v>
+      </c>
+      <c r="H121" t="s">
+        <v>22</v>
+      </c>
+      <c r="I121" t="s">
+        <v>23</v>
+      </c>
+      <c r="J121" t="s">
+        <v>760</v>
+      </c>
+      <c r="K121">
+        <v>646.8</v>
+      </c>
+      <c r="L121">
+        <v>375</v>
+      </c>
+      <c r="M121" t="s">
+        <v>25</v>
+      </c>
       <c r="N121" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="O121" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="P121" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="Q121" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
     </row>
     <row r="122" spans="1:17">
+      <c r="A122">
+        <v>86</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
+        <v>765</v>
+      </c>
+      <c r="E122" t="s">
+        <v>766</v>
+      </c>
+      <c r="F122" t="s">
+        <v>767</v>
+      </c>
+      <c r="G122" t="s">
+        <v>542</v>
+      </c>
+      <c r="H122" t="s">
+        <v>22</v>
+      </c>
+      <c r="I122" t="s">
+        <v>23</v>
+      </c>
+      <c r="J122" t="s">
+        <v>404</v>
+      </c>
+      <c r="K122">
+        <v>1883.2</v>
+      </c>
+      <c r="L122">
+        <v>230</v>
+      </c>
+      <c r="M122" t="s">
+        <v>25</v>
+      </c>
       <c r="N122" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="O122" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="P122" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="Q122" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
     </row>
     <row r="123" spans="1:17">
+      <c r="A123">
+        <v>87</v>
+      </c>
+      <c r="B123" t="s">
+        <v>97</v>
+      </c>
+      <c r="C123" t="s">
+        <v>98</v>
+      </c>
+      <c r="D123" t="s">
+        <v>772</v>
+      </c>
+      <c r="E123" t="s">
+        <v>773</v>
+      </c>
+      <c r="F123" t="s">
+        <v>767</v>
+      </c>
+      <c r="G123" t="s">
+        <v>667</v>
+      </c>
+      <c r="H123" t="s">
+        <v>494</v>
+      </c>
+      <c r="I123" t="s">
+        <v>23</v>
+      </c>
+      <c r="J123" t="s">
+        <v>230</v>
+      </c>
+      <c r="K123">
+        <v>1981.1</v>
+      </c>
+      <c r="L123">
+        <v>430</v>
+      </c>
+      <c r="M123" t="s">
+        <v>25</v>
+      </c>
       <c r="N123" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="O123" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="P123" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="Q123" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
     </row>
     <row r="124" spans="1:17">
       <c r="N124" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="O124" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="P124" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="Q124" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
     </row>
     <row r="125" spans="1:17">
-      <c r="A125">
-        <v>84</v>
-      </c>
-      <c r="B125" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" t="s">
-        <v>38</v>
-      </c>
-      <c r="D125" t="s">
-        <v>766</v>
-      </c>
-      <c r="E125" t="s">
-        <v>767</v>
-      </c>
-      <c r="F125" t="s">
-        <v>227</v>
-      </c>
-      <c r="G125" t="s">
-        <v>744</v>
-      </c>
-      <c r="H125" t="s">
-        <v>768</v>
-      </c>
-      <c r="I125" t="s">
-        <v>23</v>
-      </c>
-      <c r="J125" t="s">
-        <v>230</v>
-      </c>
-      <c r="K125">
-        <v>1387.1</v>
-      </c>
-      <c r="L125">
-        <v>3880</v>
-      </c>
-      <c r="M125" t="s">
-        <v>25</v>
-      </c>
       <c r="N125" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="O125" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="P125" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="Q125" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="N126" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="O126" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="P126" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="Q126" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="127" spans="1:17">
       <c r="N127" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="O127" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="P127" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="Q127" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="128" spans="1:17">
       <c r="A128">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B128" t="s">
         <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>781</v>
+        <v>30</v>
       </c>
       <c r="E128" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="F128" t="s">
-        <v>581</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>783</v>
+        <v>32</v>
       </c>
       <c r="H128" t="s">
-        <v>784</v>
+        <v>22</v>
       </c>
       <c r="I128" t="s">
         <v>23</v>
       </c>
       <c r="J128" t="s">
-        <v>415</v>
+        <v>760</v>
       </c>
       <c r="K128">
-        <v>851.0</v>
+        <v>1815.0</v>
       </c>
       <c r="L128">
-        <v>47</v>
+        <v>1100</v>
       </c>
       <c r="M128" t="s">
-        <v>167</v>
+        <v>643</v>
       </c>
       <c r="N128" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="O128" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="P128" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="Q128" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
     </row>
     <row r="129" spans="1:17">
-      <c r="A129">
-        <v>86</v>
-      </c>
-      <c r="B129" t="s">
-        <v>17</v>
-      </c>
-      <c r="C129" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" t="s">
-        <v>789</v>
-      </c>
-      <c r="E129" t="s">
-        <v>790</v>
-      </c>
-      <c r="F129" t="s">
-        <v>227</v>
-      </c>
-      <c r="G129" t="s">
-        <v>791</v>
-      </c>
-      <c r="H129" t="s">
-        <v>22</v>
-      </c>
-      <c r="I129" t="s">
+      <c r="N129" t="s">
+        <v>799</v>
+      </c>
+      <c r="O129" t="s">
+        <v>800</v>
+      </c>
+      <c r="P129" t="s">
+        <v>801</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="N130" t="s">
+        <v>803</v>
+      </c>
+      <c r="O130" t="s">
+        <v>804</v>
+      </c>
+      <c r="P130" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131">
+        <v>89</v>
+      </c>
+      <c r="B131" t="s">
+        <v>97</v>
+      </c>
+      <c r="C131" t="s">
+        <v>98</v>
+      </c>
+      <c r="D131" t="s">
+        <v>807</v>
+      </c>
+      <c r="E131" t="s">
+        <v>808</v>
+      </c>
+      <c r="F131" t="s">
+        <v>809</v>
+      </c>
+      <c r="G131" t="s">
+        <v>130</v>
+      </c>
+      <c r="H131" t="s">
+        <v>810</v>
+      </c>
+      <c r="I131" t="s">
         <v>23</v>
       </c>
-      <c r="J129" t="s">
-        <v>415</v>
-      </c>
-      <c r="K129">
-        <v>407.0</v>
-      </c>
-      <c r="L129">
-        <v>1854</v>
-      </c>
-      <c r="M129" t="s">
+      <c r="J131" t="s">
+        <v>439</v>
+      </c>
+      <c r="K131">
+        <v>594.0</v>
+      </c>
+      <c r="L131">
+        <v>11</v>
+      </c>
+      <c r="M131" t="s">
         <v>25</v>
       </c>
-      <c r="N129" t="s">
-        <v>792</v>
-      </c>
-      <c r="O129" t="s">
-        <v>793</v>
-      </c>
-      <c r="P129" t="s">
-        <v>794</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17">
-      <c r="A130">
-        <v>87</v>
-      </c>
-      <c r="B130" t="s">
-        <v>97</v>
-      </c>
-      <c r="C130" t="s">
-        <v>98</v>
-      </c>
-      <c r="D130" t="s">
-        <v>796</v>
-      </c>
-      <c r="E130" t="s">
-        <v>797</v>
-      </c>
-      <c r="F130" t="s">
-        <v>636</v>
-      </c>
-      <c r="G130" t="s">
-        <v>798</v>
-      </c>
-      <c r="H130" t="s">
-        <v>242</v>
-      </c>
-      <c r="I130" t="s">
-        <v>23</v>
-      </c>
-      <c r="J130" t="s">
-        <v>404</v>
-      </c>
-      <c r="K130">
-        <v>2304.0</v>
-      </c>
-      <c r="L130">
-        <v>600</v>
-      </c>
-      <c r="M130" t="s">
-        <v>25</v>
-      </c>
-      <c r="N130" t="s">
-        <v>799</v>
-      </c>
-      <c r="O130" t="s">
-        <v>800</v>
-      </c>
-      <c r="P130" t="s">
-        <v>801</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17">
       <c r="N131" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="O131" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="P131" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="Q131" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
     </row>
     <row r="132" spans="1:17">
-      <c r="A132">
-        <v>88</v>
-      </c>
-      <c r="B132" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" t="s">
-        <v>275</v>
-      </c>
-      <c r="D132" t="s">
-        <v>807</v>
-      </c>
-      <c r="E132" t="s">
-        <v>808</v>
-      </c>
-      <c r="F132" t="s">
-        <v>277</v>
-      </c>
-      <c r="G132" t="s">
-        <v>675</v>
-      </c>
-      <c r="H132" t="s">
-        <v>809</v>
-      </c>
-      <c r="I132" t="s">
-        <v>23</v>
-      </c>
-      <c r="J132" t="s">
-        <v>404</v>
-      </c>
-      <c r="K132">
-        <v>1010.07</v>
-      </c>
-      <c r="L132">
-        <v>880</v>
-      </c>
-      <c r="M132" t="s">
-        <v>25</v>
-      </c>
       <c r="N132" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="O132" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="P132" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="Q132" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
     </row>
     <row r="133" spans="1:17">
       <c r="A133">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C133" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D133" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="E133" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="F133" t="s">
-        <v>816</v>
+        <v>71</v>
       </c>
       <c r="G133" t="s">
-        <v>414</v>
+        <v>130</v>
       </c>
       <c r="H133" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="I133" t="s">
         <v>23</v>
       </c>
       <c r="J133" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="K133">
-        <v>620.4</v>
+        <v>2475.0</v>
       </c>
       <c r="L133">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="M133" t="s">
         <v>25</v>
       </c>
       <c r="N133" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="O133" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="P133" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="Q133" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="134" spans="1:17">
       <c r="A134">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C134" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D134" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="E134" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="F134" t="s">
-        <v>824</v>
+        <v>227</v>
       </c>
       <c r="G134" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="H134" t="s">
-        <v>258</v>
+        <v>829</v>
       </c>
       <c r="I134" t="s">
         <v>23</v>
@@ -8334,243 +8604,167 @@
         <v>230</v>
       </c>
       <c r="K134">
-        <v>495.0</v>
+        <v>2277.0</v>
       </c>
       <c r="L134">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="M134" t="s">
         <v>25</v>
       </c>
       <c r="N134" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="O134" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="P134" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="Q134" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="135" spans="1:17">
-      <c r="A135">
-        <v>91</v>
-      </c>
-      <c r="B135" t="s">
-        <v>97</v>
-      </c>
-      <c r="C135" t="s">
-        <v>98</v>
-      </c>
-      <c r="D135" t="s">
-        <v>830</v>
-      </c>
-      <c r="E135" t="s">
-        <v>831</v>
-      </c>
-      <c r="F135" t="s">
-        <v>832</v>
-      </c>
-      <c r="G135" t="s">
-        <v>833</v>
-      </c>
-      <c r="H135" t="s">
+      <c r="N135" t="s">
         <v>834</v>
       </c>
-      <c r="I135" t="s">
-        <v>23</v>
-      </c>
-      <c r="J135" t="s">
-        <v>559</v>
-      </c>
-      <c r="K135">
-        <v>748.0</v>
-      </c>
-      <c r="L135">
-        <v>9</v>
-      </c>
-      <c r="M135" t="s">
-        <v>25</v>
-      </c>
-      <c r="N135" t="s">
+      <c r="O135" t="s">
         <v>835</v>
       </c>
-      <c r="O135" t="s">
+      <c r="P135" t="s">
         <v>836</v>
       </c>
-      <c r="P135" t="s">
+      <c r="Q135" t="s">
         <v>837</v>
       </c>
-      <c r="Q135" t="s">
+    </row>
+    <row r="136" spans="1:17">
+      <c r="N136" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="136" spans="1:17">
-      <c r="A136">
-        <v>92</v>
-      </c>
-      <c r="B136" t="s">
-        <v>59</v>
-      </c>
-      <c r="C136"/>
-      <c r="D136" t="s">
+      <c r="O136" t="s">
         <v>839</v>
       </c>
-      <c r="E136" t="s">
+      <c r="P136" t="s">
         <v>840</v>
       </c>
-      <c r="F136" t="s">
-        <v>636</v>
-      </c>
-      <c r="G136" t="s">
-        <v>352</v>
-      </c>
-      <c r="H136" t="s">
-        <v>63</v>
-      </c>
-      <c r="I136" t="s">
-        <v>23</v>
-      </c>
-      <c r="J136" t="s">
-        <v>415</v>
-      </c>
-      <c r="K136">
-        <v>682.0</v>
-      </c>
-      <c r="L136">
-        <v>2</v>
-      </c>
-      <c r="M136" t="s">
-        <v>25</v>
-      </c>
-      <c r="N136" t="s">
+      <c r="Q136" t="s">
         <v>841</v>
       </c>
-      <c r="O136" t="s">
+    </row>
+    <row r="137" spans="1:17">
+      <c r="N137" t="s">
         <v>842</v>
       </c>
-      <c r="P136" t="s">
+      <c r="O137" t="s">
         <v>843</v>
       </c>
-      <c r="Q136" t="s">
+      <c r="P137" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="137" spans="1:17">
-      <c r="A137">
-        <v>93</v>
-      </c>
-      <c r="B137" t="s">
-        <v>97</v>
-      </c>
-      <c r="C137" t="s">
-        <v>98</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="Q137" t="s">
         <v>845</v>
-      </c>
-      <c r="E137" t="s">
-        <v>846</v>
-      </c>
-      <c r="F137" t="s">
-        <v>379</v>
-      </c>
-      <c r="G137" t="s">
-        <v>847</v>
-      </c>
-      <c r="H137" t="s">
-        <v>229</v>
-      </c>
-      <c r="I137" t="s">
-        <v>23</v>
-      </c>
-      <c r="J137" t="s">
-        <v>230</v>
-      </c>
-      <c r="K137">
-        <v>3025.0</v>
-      </c>
-      <c r="L137">
-        <v>274</v>
-      </c>
-      <c r="M137" t="s">
-        <v>25</v>
-      </c>
-      <c r="N137" t="s">
-        <v>848</v>
-      </c>
-      <c r="O137" t="s">
-        <v>849</v>
-      </c>
-      <c r="P137" t="s">
-        <v>850</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="138" spans="1:17">
       <c r="N138" t="s">
+        <v>846</v>
+      </c>
+      <c r="O138" t="s">
+        <v>847</v>
+      </c>
+      <c r="P138" t="s">
+        <v>848</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139">
+        <v>92</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" t="s">
+        <v>850</v>
+      </c>
+      <c r="E139" t="s">
+        <v>851</v>
+      </c>
+      <c r="F139" t="s">
+        <v>227</v>
+      </c>
+      <c r="G139" t="s">
+        <v>828</v>
+      </c>
+      <c r="H139" t="s">
         <v>852</v>
       </c>
-      <c r="O138" t="s">
+      <c r="I139" t="s">
+        <v>23</v>
+      </c>
+      <c r="J139" t="s">
+        <v>230</v>
+      </c>
+      <c r="K139">
+        <v>1387.1</v>
+      </c>
+      <c r="L139">
+        <v>3880</v>
+      </c>
+      <c r="M139" t="s">
+        <v>25</v>
+      </c>
+      <c r="N139" t="s">
         <v>853</v>
       </c>
-      <c r="P138" t="s">
+      <c r="O139" t="s">
         <v>854</v>
       </c>
-      <c r="Q138" t="s">
+      <c r="P139" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="139" spans="1:17">
-      <c r="N139" t="s">
+      <c r="Q139" t="s">
         <v>856</v>
-      </c>
-      <c r="O139" t="s">
-        <v>857</v>
-      </c>
-      <c r="P139" t="s">
-        <v>858</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="140" spans="1:17">
       <c r="N140" t="s">
+        <v>857</v>
+      </c>
+      <c r="O140" t="s">
+        <v>858</v>
+      </c>
+      <c r="P140" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q140" t="s">
         <v>860</v>
-      </c>
-      <c r="O140" t="s">
-        <v>861</v>
-      </c>
-      <c r="P140" t="s">
-        <v>862</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="141" spans="1:17">
       <c r="N141" t="s">
+        <v>861</v>
+      </c>
+      <c r="O141" t="s">
+        <v>862</v>
+      </c>
+      <c r="P141" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q141" t="s">
         <v>864</v>
-      </c>
-      <c r="O141" t="s">
-        <v>865</v>
-      </c>
-      <c r="P141" t="s">
-        <v>866</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="142" spans="1:17">
       <c r="A142">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
@@ -8579,60 +8773,99 @@
         <v>38</v>
       </c>
       <c r="D142" t="s">
+        <v>865</v>
+      </c>
+      <c r="E142" t="s">
+        <v>866</v>
+      </c>
+      <c r="F142" t="s">
+        <v>666</v>
+      </c>
+      <c r="G142" t="s">
+        <v>867</v>
+      </c>
+      <c r="H142" t="s">
         <v>868</v>
-      </c>
-      <c r="E142" t="s">
-        <v>869</v>
-      </c>
-      <c r="F142" t="s">
-        <v>71</v>
-      </c>
-      <c r="G142" t="s">
-        <v>870</v>
-      </c>
-      <c r="H142" t="s">
-        <v>258</v>
       </c>
       <c r="I142" t="s">
         <v>23</v>
       </c>
       <c r="J142" t="s">
-        <v>243</v>
+        <v>415</v>
       </c>
       <c r="K142">
-        <v>2310.0</v>
+        <v>851.0</v>
       </c>
       <c r="L142">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="M142" t="s">
+        <v>167</v>
+      </c>
+      <c r="N142" t="s">
+        <v>869</v>
+      </c>
+      <c r="O142" t="s">
+        <v>870</v>
+      </c>
+      <c r="P142" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143">
+        <v>94</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" t="s">
+        <v>873</v>
+      </c>
+      <c r="E143" t="s">
+        <v>874</v>
+      </c>
+      <c r="F143" t="s">
+        <v>227</v>
+      </c>
+      <c r="G143" t="s">
+        <v>875</v>
+      </c>
+      <c r="H143" t="s">
+        <v>22</v>
+      </c>
+      <c r="I143" t="s">
+        <v>23</v>
+      </c>
+      <c r="J143" t="s">
+        <v>415</v>
+      </c>
+      <c r="K143">
+        <v>407.0</v>
+      </c>
+      <c r="L143">
+        <v>1854</v>
+      </c>
+      <c r="M143" t="s">
         <v>25</v>
       </c>
-      <c r="N142" t="s">
-        <v>871</v>
-      </c>
-      <c r="O142" t="s">
-        <v>872</v>
-      </c>
-      <c r="P142" t="s">
-        <v>873</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17">
       <c r="N143" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O143" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="P143" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="Q143" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -8646,372 +8879,878 @@
         <v>98</v>
       </c>
       <c r="D144" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E144" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F144" t="s">
-        <v>379</v>
+        <v>721</v>
       </c>
       <c r="G144" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H144" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="I144" t="s">
         <v>23</v>
       </c>
       <c r="J144" t="s">
-        <v>230</v>
+        <v>404</v>
       </c>
       <c r="K144">
-        <v>2695.0</v>
+        <v>2304.0</v>
       </c>
       <c r="L144">
-        <v>8499</v>
+        <v>600</v>
       </c>
       <c r="M144" t="s">
         <v>25</v>
       </c>
       <c r="N144" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="O144" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="P144" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="Q144" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="145" spans="1:17">
       <c r="N145" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="O145" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="P145" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="Q145" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="146" spans="1:17">
+      <c r="A146">
+        <v>96</v>
+      </c>
+      <c r="B146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" t="s">
+        <v>275</v>
+      </c>
+      <c r="D146" t="s">
+        <v>891</v>
+      </c>
+      <c r="E146" t="s">
+        <v>892</v>
+      </c>
+      <c r="F146" t="s">
+        <v>277</v>
+      </c>
+      <c r="G146" t="s">
+        <v>759</v>
+      </c>
+      <c r="H146" t="s">
+        <v>893</v>
+      </c>
+      <c r="I146" t="s">
+        <v>23</v>
+      </c>
+      <c r="J146" t="s">
+        <v>404</v>
+      </c>
+      <c r="K146">
+        <v>1010.07</v>
+      </c>
+      <c r="L146">
+        <v>880</v>
+      </c>
+      <c r="M146" t="s">
+        <v>25</v>
+      </c>
       <c r="N146" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="O146" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="P146" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="Q146" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="147" spans="1:17">
+      <c r="A147">
+        <v>97</v>
+      </c>
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" t="s">
+        <v>38</v>
+      </c>
+      <c r="D147" t="s">
+        <v>898</v>
+      </c>
+      <c r="E147" t="s">
+        <v>899</v>
+      </c>
+      <c r="F147" t="s">
+        <v>900</v>
+      </c>
+      <c r="G147" t="s">
+        <v>414</v>
+      </c>
+      <c r="H147" t="s">
+        <v>901</v>
+      </c>
+      <c r="I147" t="s">
+        <v>23</v>
+      </c>
+      <c r="J147" t="s">
+        <v>404</v>
+      </c>
+      <c r="K147">
+        <v>620.4</v>
+      </c>
+      <c r="L147">
+        <v>147</v>
+      </c>
+      <c r="M147" t="s">
+        <v>25</v>
+      </c>
       <c r="N147" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="O147" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="P147" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="Q147" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
     </row>
     <row r="148" spans="1:17">
+      <c r="A148">
+        <v>98</v>
+      </c>
+      <c r="B148" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" t="s">
+        <v>38</v>
+      </c>
+      <c r="D148" t="s">
+        <v>906</v>
+      </c>
+      <c r="E148" t="s">
+        <v>907</v>
+      </c>
+      <c r="F148" t="s">
+        <v>908</v>
+      </c>
+      <c r="G148" t="s">
+        <v>909</v>
+      </c>
+      <c r="H148" t="s">
+        <v>258</v>
+      </c>
+      <c r="I148" t="s">
+        <v>23</v>
+      </c>
+      <c r="J148" t="s">
+        <v>230</v>
+      </c>
+      <c r="K148">
+        <v>495.0</v>
+      </c>
+      <c r="L148">
+        <v>24</v>
+      </c>
+      <c r="M148" t="s">
+        <v>25</v>
+      </c>
       <c r="N148" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="O148" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="P148" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="Q148" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
     </row>
     <row r="149" spans="1:17">
       <c r="A149">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B149" t="s">
-        <v>59</v>
-      </c>
-      <c r="C149"/>
+        <v>97</v>
+      </c>
+      <c r="C149" t="s">
+        <v>98</v>
+      </c>
       <c r="D149" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="E149" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="F149" t="s">
-        <v>379</v>
+        <v>916</v>
       </c>
       <c r="G149" t="s">
-        <v>904</v>
+        <v>600</v>
       </c>
       <c r="H149" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="I149" t="s">
         <v>23</v>
       </c>
       <c r="J149" t="s">
-        <v>230</v>
+        <v>644</v>
       </c>
       <c r="K149">
-        <v>1452.0</v>
+        <v>748.0</v>
       </c>
       <c r="L149">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="M149" t="s">
         <v>25</v>
       </c>
       <c r="N149" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="O149" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="P149" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="Q149" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
     </row>
     <row r="150" spans="1:17">
       <c r="A150">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B150" t="s">
-        <v>97</v>
-      </c>
-      <c r="C150" t="s">
-        <v>98</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C150"/>
       <c r="D150" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="E150" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="F150" t="s">
-        <v>379</v>
+        <v>721</v>
       </c>
       <c r="G150" t="s">
-        <v>422</v>
+        <v>352</v>
       </c>
       <c r="H150" t="s">
-        <v>912</v>
+        <v>63</v>
       </c>
       <c r="I150" t="s">
         <v>23</v>
       </c>
       <c r="J150" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="K150">
-        <v>1595.0</v>
+        <v>682.0</v>
       </c>
       <c r="L150">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="M150" t="s">
         <v>25</v>
       </c>
       <c r="N150" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="O150" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="P150" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="Q150" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
     </row>
     <row r="151" spans="1:17">
+      <c r="A151">
+        <v>101</v>
+      </c>
+      <c r="B151" t="s">
+        <v>97</v>
+      </c>
+      <c r="C151" t="s">
+        <v>98</v>
+      </c>
+      <c r="D151" t="s">
+        <v>928</v>
+      </c>
+      <c r="E151" t="s">
+        <v>929</v>
+      </c>
+      <c r="F151" t="s">
+        <v>379</v>
+      </c>
+      <c r="G151" t="s">
+        <v>930</v>
+      </c>
+      <c r="H151" t="s">
+        <v>229</v>
+      </c>
+      <c r="I151" t="s">
+        <v>23</v>
+      </c>
+      <c r="J151" t="s">
+        <v>230</v>
+      </c>
+      <c r="K151">
+        <v>3025.0</v>
+      </c>
+      <c r="L151">
+        <v>274</v>
+      </c>
+      <c r="M151" t="s">
+        <v>25</v>
+      </c>
       <c r="N151" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
       <c r="O151" t="s">
-        <v>918</v>
+        <v>932</v>
       </c>
       <c r="P151" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
       <c r="Q151" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
     </row>
     <row r="152" spans="1:17">
-      <c r="A152">
-        <v>98</v>
-      </c>
-      <c r="B152" t="s">
-        <v>17</v>
-      </c>
-      <c r="C152" t="s">
-        <v>38</v>
-      </c>
-      <c r="D152" t="s">
-        <v>921</v>
-      </c>
-      <c r="E152" t="s">
-        <v>922</v>
-      </c>
-      <c r="F152" t="s">
-        <v>227</v>
-      </c>
-      <c r="G152" t="s">
-        <v>228</v>
-      </c>
-      <c r="H152" t="s">
-        <v>258</v>
-      </c>
-      <c r="I152" t="s">
-        <v>23</v>
-      </c>
-      <c r="J152" t="s">
-        <v>923</v>
-      </c>
-      <c r="K152"/>
-      <c r="L152"/>
-      <c r="M152" t="s">
-        <v>25</v>
+      <c r="N152" t="s">
+        <v>935</v>
+      </c>
+      <c r="O152" t="s">
+        <v>936</v>
+      </c>
+      <c r="P152" t="s">
+        <v>937</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="153" spans="1:17">
-      <c r="A153">
-        <v>99</v>
-      </c>
-      <c r="B153" t="s">
-        <v>17</v>
-      </c>
-      <c r="C153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D153" t="s">
-        <v>921</v>
-      </c>
-      <c r="E153" t="s">
-        <v>922</v>
-      </c>
-      <c r="F153" t="s">
-        <v>227</v>
-      </c>
-      <c r="G153" t="s">
-        <v>228</v>
-      </c>
-      <c r="H153" t="s">
-        <v>258</v>
-      </c>
-      <c r="I153" t="s">
-        <v>23</v>
-      </c>
-      <c r="J153" t="s">
-        <v>923</v>
-      </c>
-      <c r="K153"/>
-      <c r="L153"/>
-      <c r="M153" t="s">
-        <v>25</v>
-      </c>
       <c r="N153" t="s">
-        <v>924</v>
+        <v>939</v>
       </c>
       <c r="O153" t="s">
-        <v>925</v>
+        <v>940</v>
       </c>
       <c r="P153" t="s">
-        <v>926</v>
+        <v>941</v>
       </c>
       <c r="Q153" t="s">
-        <v>927</v>
+        <v>942</v>
       </c>
     </row>
     <row r="154" spans="1:17">
-      <c r="A154">
-        <v>100</v>
-      </c>
-      <c r="B154" t="s">
-        <v>97</v>
-      </c>
-      <c r="C154" t="s">
-        <v>98</v>
-      </c>
-      <c r="D154" t="s">
-        <v>226</v>
-      </c>
-      <c r="E154" t="s">
-        <v>928</v>
-      </c>
-      <c r="F154" t="s">
-        <v>227</v>
-      </c>
-      <c r="G154" t="s">
-        <v>228</v>
-      </c>
-      <c r="H154" t="s">
-        <v>220</v>
-      </c>
-      <c r="I154" t="s">
-        <v>23</v>
-      </c>
-      <c r="J154" t="s">
-        <v>230</v>
-      </c>
-      <c r="K154">
-        <v>1301.3</v>
-      </c>
-      <c r="L154">
-        <v>200</v>
-      </c>
-      <c r="M154" t="s">
-        <v>25</v>
-      </c>
       <c r="N154" t="s">
-        <v>231</v>
+        <v>943</v>
       </c>
       <c r="O154" t="s">
-        <v>232</v>
+        <v>944</v>
       </c>
       <c r="P154" t="s">
-        <v>233</v>
+        <v>945</v>
       </c>
       <c r="Q154" t="s">
-        <v>234</v>
+        <v>946</v>
       </c>
     </row>
     <row r="155" spans="1:17">
       <c r="N155" t="s">
+        <v>947</v>
+      </c>
+      <c r="O155" t="s">
+        <v>948</v>
+      </c>
+      <c r="P155" t="s">
+        <v>949</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156">
+        <v>102</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>38</v>
+      </c>
+      <c r="D156" t="s">
+        <v>951</v>
+      </c>
+      <c r="E156" t="s">
+        <v>952</v>
+      </c>
+      <c r="F156" t="s">
+        <v>71</v>
+      </c>
+      <c r="G156" t="s">
+        <v>953</v>
+      </c>
+      <c r="H156" t="s">
+        <v>258</v>
+      </c>
+      <c r="I156" t="s">
+        <v>23</v>
+      </c>
+      <c r="J156" t="s">
+        <v>243</v>
+      </c>
+      <c r="K156">
+        <v>2310.0</v>
+      </c>
+      <c r="L156">
+        <v>12</v>
+      </c>
+      <c r="M156" t="s">
+        <v>25</v>
+      </c>
+      <c r="N156" t="s">
+        <v>954</v>
+      </c>
+      <c r="O156" t="s">
+        <v>955</v>
+      </c>
+      <c r="P156" t="s">
+        <v>956</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="N157" t="s">
+        <v>958</v>
+      </c>
+      <c r="O157" t="s">
+        <v>959</v>
+      </c>
+      <c r="P157" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158">
+        <v>103</v>
+      </c>
+      <c r="B158" t="s">
+        <v>97</v>
+      </c>
+      <c r="C158" t="s">
+        <v>98</v>
+      </c>
+      <c r="D158" t="s">
+        <v>962</v>
+      </c>
+      <c r="E158" t="s">
+        <v>963</v>
+      </c>
+      <c r="F158" t="s">
+        <v>379</v>
+      </c>
+      <c r="G158" t="s">
+        <v>964</v>
+      </c>
+      <c r="H158" t="s">
+        <v>229</v>
+      </c>
+      <c r="I158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J158" t="s">
+        <v>230</v>
+      </c>
+      <c r="K158">
+        <v>2695.0</v>
+      </c>
+      <c r="L158">
+        <v>8499</v>
+      </c>
+      <c r="M158" t="s">
+        <v>25</v>
+      </c>
+      <c r="N158" t="s">
+        <v>965</v>
+      </c>
+      <c r="O158" t="s">
+        <v>966</v>
+      </c>
+      <c r="P158" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="N159" t="s">
+        <v>969</v>
+      </c>
+      <c r="O159" t="s">
+        <v>970</v>
+      </c>
+      <c r="P159" t="s">
+        <v>971</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="N160" t="s">
+        <v>973</v>
+      </c>
+      <c r="O160" t="s">
+        <v>974</v>
+      </c>
+      <c r="P160" t="s">
+        <v>975</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="N161" t="s">
+        <v>977</v>
+      </c>
+      <c r="O161" t="s">
+        <v>978</v>
+      </c>
+      <c r="P161" t="s">
+        <v>979</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="N162" t="s">
+        <v>981</v>
+      </c>
+      <c r="O162" t="s">
+        <v>982</v>
+      </c>
+      <c r="P162" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
+      <c r="A163">
+        <v>104</v>
+      </c>
+      <c r="B163" t="s">
+        <v>59</v>
+      </c>
+      <c r="C163"/>
+      <c r="D163" t="s">
+        <v>985</v>
+      </c>
+      <c r="E163" t="s">
+        <v>986</v>
+      </c>
+      <c r="F163" t="s">
+        <v>379</v>
+      </c>
+      <c r="G163" t="s">
+        <v>987</v>
+      </c>
+      <c r="H163" t="s">
+        <v>988</v>
+      </c>
+      <c r="I163" t="s">
+        <v>23</v>
+      </c>
+      <c r="J163" t="s">
+        <v>230</v>
+      </c>
+      <c r="K163">
+        <v>1452.0</v>
+      </c>
+      <c r="L163">
+        <v>80</v>
+      </c>
+      <c r="M163" t="s">
+        <v>25</v>
+      </c>
+      <c r="N163" t="s">
+        <v>989</v>
+      </c>
+      <c r="O163" t="s">
+        <v>990</v>
+      </c>
+      <c r="P163" t="s">
+        <v>991</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
+      <c r="A164">
+        <v>105</v>
+      </c>
+      <c r="B164" t="s">
+        <v>97</v>
+      </c>
+      <c r="C164" t="s">
+        <v>98</v>
+      </c>
+      <c r="D164" t="s">
+        <v>993</v>
+      </c>
+      <c r="E164" t="s">
+        <v>994</v>
+      </c>
+      <c r="F164" t="s">
+        <v>379</v>
+      </c>
+      <c r="G164" t="s">
+        <v>422</v>
+      </c>
+      <c r="H164" t="s">
+        <v>995</v>
+      </c>
+      <c r="I164" t="s">
+        <v>23</v>
+      </c>
+      <c r="J164" t="s">
+        <v>404</v>
+      </c>
+      <c r="K164">
+        <v>1595.0</v>
+      </c>
+      <c r="L164">
+        <v>200</v>
+      </c>
+      <c r="M164" t="s">
+        <v>25</v>
+      </c>
+      <c r="N164" t="s">
+        <v>996</v>
+      </c>
+      <c r="O164" t="s">
+        <v>997</v>
+      </c>
+      <c r="P164" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="N165" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O165" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P165" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="A166">
+        <v>106</v>
+      </c>
+      <c r="B166" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" t="s">
+        <v>38</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F166" t="s">
+        <v>227</v>
+      </c>
+      <c r="G166" t="s">
+        <v>228</v>
+      </c>
+      <c r="H166" t="s">
+        <v>258</v>
+      </c>
+      <c r="I166" t="s">
+        <v>23</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K166"/>
+      <c r="L166"/>
+      <c r="M166" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="A167">
+        <v>107</v>
+      </c>
+      <c r="B167" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" t="s">
+        <v>38</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F167" t="s">
+        <v>227</v>
+      </c>
+      <c r="G167" t="s">
+        <v>228</v>
+      </c>
+      <c r="H167" t="s">
+        <v>258</v>
+      </c>
+      <c r="I167" t="s">
+        <v>23</v>
+      </c>
+      <c r="J167" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K167"/>
+      <c r="L167"/>
+      <c r="M167" t="s">
+        <v>25</v>
+      </c>
+      <c r="N167" t="s">
+        <v>1007</v>
+      </c>
+      <c r="O167" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P167" t="s">
+        <v>1009</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168">
+        <v>108</v>
+      </c>
+      <c r="B168" t="s">
+        <v>97</v>
+      </c>
+      <c r="C168" t="s">
+        <v>98</v>
+      </c>
+      <c r="D168" t="s">
+        <v>226</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F168" t="s">
+        <v>227</v>
+      </c>
+      <c r="G168" t="s">
+        <v>228</v>
+      </c>
+      <c r="H168" t="s">
+        <v>220</v>
+      </c>
+      <c r="I168" t="s">
+        <v>23</v>
+      </c>
+      <c r="J168" t="s">
+        <v>230</v>
+      </c>
+      <c r="K168">
+        <v>1301.3</v>
+      </c>
+      <c r="L168">
+        <v>200</v>
+      </c>
+      <c r="M168" t="s">
+        <v>25</v>
+      </c>
+      <c r="N168" t="s">
+        <v>231</v>
+      </c>
+      <c r="O168" t="s">
+        <v>232</v>
+      </c>
+      <c r="P168" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="N169" t="s">
         <v>235</v>
       </c>
-      <c r="O155" t="s">
+      <c r="O169" t="s">
         <v>236</v>
       </c>
-      <c r="P155" t="s">
+      <c r="P169" t="s">
         <v>237</v>
       </c>
-      <c r="Q155" t="s">
+      <c r="Q169" t="s">
         <v>238</v>
       </c>
     </row>
@@ -9772,84 +10511,32 @@
     <mergeCell ref="K87:K87"/>
     <mergeCell ref="L87:L87"/>
     <mergeCell ref="M87:M87"/>
-    <mergeCell ref="A88:A88"/>
-    <mergeCell ref="B88:B88"/>
-    <mergeCell ref="C88:C88"/>
-    <mergeCell ref="D88:D88"/>
-    <mergeCell ref="E88:E88"/>
-    <mergeCell ref="F88:F88"/>
-    <mergeCell ref="G88:G88"/>
-    <mergeCell ref="H88:H88"/>
-    <mergeCell ref="I88:I88"/>
-    <mergeCell ref="J88:J88"/>
-    <mergeCell ref="K88:K88"/>
-    <mergeCell ref="L88:L88"/>
-    <mergeCell ref="M88:M88"/>
-    <mergeCell ref="A90:A90"/>
-    <mergeCell ref="B90:B90"/>
-    <mergeCell ref="C90:C90"/>
-    <mergeCell ref="D90:D90"/>
-    <mergeCell ref="E90:E90"/>
-    <mergeCell ref="F90:F90"/>
-    <mergeCell ref="G90:G90"/>
-    <mergeCell ref="H90:H90"/>
-    <mergeCell ref="I90:I90"/>
-    <mergeCell ref="J90:J90"/>
-    <mergeCell ref="K90:K90"/>
-    <mergeCell ref="L90:L90"/>
-    <mergeCell ref="M90:M90"/>
-    <mergeCell ref="A91:A91"/>
-    <mergeCell ref="B91:B91"/>
-    <mergeCell ref="C91:C91"/>
-    <mergeCell ref="D91:D91"/>
-    <mergeCell ref="E91:E91"/>
-    <mergeCell ref="F91:F91"/>
-    <mergeCell ref="G91:G91"/>
-    <mergeCell ref="H91:H91"/>
-    <mergeCell ref="I91:I91"/>
-    <mergeCell ref="J91:J91"/>
-    <mergeCell ref="K91:K91"/>
-    <mergeCell ref="L91:L91"/>
-    <mergeCell ref="M91:M91"/>
-    <mergeCell ref="A92:A92"/>
-    <mergeCell ref="B92:B92"/>
-    <mergeCell ref="C92:C92"/>
-    <mergeCell ref="D92:D92"/>
-    <mergeCell ref="E92:E92"/>
-    <mergeCell ref="F92:F92"/>
-    <mergeCell ref="G92:G92"/>
-    <mergeCell ref="H92:H92"/>
-    <mergeCell ref="I92:I92"/>
-    <mergeCell ref="J92:J92"/>
-    <mergeCell ref="K92:K92"/>
-    <mergeCell ref="L92:L92"/>
-    <mergeCell ref="M92:M92"/>
-    <mergeCell ref="A93:A93"/>
-    <mergeCell ref="B93:B93"/>
-    <mergeCell ref="C93:C93"/>
-    <mergeCell ref="D93:D93"/>
-    <mergeCell ref="E93:E93"/>
-    <mergeCell ref="F93:F93"/>
-    <mergeCell ref="G93:G93"/>
-    <mergeCell ref="H93:H93"/>
-    <mergeCell ref="I93:I93"/>
-    <mergeCell ref="J93:J93"/>
-    <mergeCell ref="K93:K93"/>
-    <mergeCell ref="L93:L93"/>
-    <mergeCell ref="M93:M93"/>
-    <mergeCell ref="A94:A94"/>
-    <mergeCell ref="B94:B94"/>
-    <mergeCell ref="C94:C94"/>
-    <mergeCell ref="D94:D94"/>
-    <mergeCell ref="E94:E94"/>
-    <mergeCell ref="F94:F94"/>
-    <mergeCell ref="G94:G94"/>
-    <mergeCell ref="H94:H94"/>
-    <mergeCell ref="I94:I94"/>
-    <mergeCell ref="J94:J94"/>
-    <mergeCell ref="K94:K94"/>
-    <mergeCell ref="L94:L94"/>
-    <mergeCell ref="M94:M94"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="E88:E92"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="G88:G92"/>
+    <mergeCell ref="H88:H92"/>
+    <mergeCell ref="I88:I92"/>
+    <mergeCell ref="J88:J92"/>
+    <mergeCell ref="K88:K92"/>
+    <mergeCell ref="L88:L92"/>
+    <mergeCell ref="M88:M92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
     <mergeCell ref="A95:A95"/>
     <mergeCell ref="B95:B95"/>
     <mergeCell ref="C95:C95"/>
@@ -9889,32 +10576,19 @@
     <mergeCell ref="K97:K97"/>
     <mergeCell ref="L97:L97"/>
     <mergeCell ref="M97:M97"/>
-    <mergeCell ref="A98:A98"/>
-    <mergeCell ref="B98:B98"/>
-    <mergeCell ref="C98:C98"/>
-    <mergeCell ref="D98:D98"/>
-    <mergeCell ref="E98:E98"/>
-    <mergeCell ref="F98:F98"/>
-    <mergeCell ref="G98:G98"/>
-    <mergeCell ref="H98:H98"/>
-    <mergeCell ref="I98:I98"/>
-    <mergeCell ref="J98:J98"/>
-    <mergeCell ref="K98:K98"/>
-    <mergeCell ref="L98:L98"/>
-    <mergeCell ref="M98:M98"/>
-    <mergeCell ref="A99:A99"/>
-    <mergeCell ref="B99:B99"/>
-    <mergeCell ref="C99:C99"/>
-    <mergeCell ref="D99:D99"/>
-    <mergeCell ref="E99:E99"/>
-    <mergeCell ref="F99:F99"/>
-    <mergeCell ref="G99:G99"/>
-    <mergeCell ref="H99:H99"/>
-    <mergeCell ref="I99:I99"/>
-    <mergeCell ref="J99:J99"/>
-    <mergeCell ref="K99:K99"/>
-    <mergeCell ref="L99:L99"/>
-    <mergeCell ref="M99:M99"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="M98:M99"/>
     <mergeCell ref="A100:A100"/>
     <mergeCell ref="B100:B100"/>
     <mergeCell ref="C100:C100"/>
@@ -9954,19 +10628,32 @@
     <mergeCell ref="K102:K102"/>
     <mergeCell ref="L102:L102"/>
     <mergeCell ref="M102:M102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="J103:J105"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="L103:L105"/>
-    <mergeCell ref="M103:M105"/>
+    <mergeCell ref="A104:A104"/>
+    <mergeCell ref="B104:B104"/>
+    <mergeCell ref="C104:C104"/>
+    <mergeCell ref="D104:D104"/>
+    <mergeCell ref="E104:E104"/>
+    <mergeCell ref="F104:F104"/>
+    <mergeCell ref="G104:G104"/>
+    <mergeCell ref="H104:H104"/>
+    <mergeCell ref="I104:I104"/>
+    <mergeCell ref="J104:J104"/>
+    <mergeCell ref="K104:K104"/>
+    <mergeCell ref="L104:L104"/>
+    <mergeCell ref="M104:M104"/>
+    <mergeCell ref="A105:A105"/>
+    <mergeCell ref="B105:B105"/>
+    <mergeCell ref="C105:C105"/>
+    <mergeCell ref="D105:D105"/>
+    <mergeCell ref="E105:E105"/>
+    <mergeCell ref="F105:F105"/>
+    <mergeCell ref="G105:G105"/>
+    <mergeCell ref="H105:H105"/>
+    <mergeCell ref="I105:I105"/>
+    <mergeCell ref="J105:J105"/>
+    <mergeCell ref="K105:K105"/>
+    <mergeCell ref="L105:L105"/>
+    <mergeCell ref="M105:M105"/>
     <mergeCell ref="A106:A106"/>
     <mergeCell ref="B106:B106"/>
     <mergeCell ref="C106:C106"/>
@@ -10006,136 +10693,201 @@
     <mergeCell ref="K108:K108"/>
     <mergeCell ref="L108:L108"/>
     <mergeCell ref="M108:M108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="E109:E113"/>
-    <mergeCell ref="F109:F113"/>
-    <mergeCell ref="G109:G113"/>
-    <mergeCell ref="H109:H113"/>
-    <mergeCell ref="I109:I113"/>
-    <mergeCell ref="J109:J113"/>
-    <mergeCell ref="K109:K113"/>
-    <mergeCell ref="L109:L113"/>
-    <mergeCell ref="M109:M113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="H114:H116"/>
-    <mergeCell ref="I114:I116"/>
-    <mergeCell ref="J114:J116"/>
-    <mergeCell ref="K114:K116"/>
-    <mergeCell ref="L114:L116"/>
-    <mergeCell ref="M114:M116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="A119:A119"/>
-    <mergeCell ref="B119:B119"/>
-    <mergeCell ref="C119:C119"/>
-    <mergeCell ref="D119:D119"/>
-    <mergeCell ref="E119:E119"/>
-    <mergeCell ref="F119:F119"/>
-    <mergeCell ref="G119:G119"/>
-    <mergeCell ref="H119:H119"/>
-    <mergeCell ref="I119:I119"/>
-    <mergeCell ref="J119:J119"/>
-    <mergeCell ref="K119:K119"/>
-    <mergeCell ref="L119:L119"/>
-    <mergeCell ref="M119:M119"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="D120:D124"/>
-    <mergeCell ref="E120:E124"/>
-    <mergeCell ref="F120:F124"/>
-    <mergeCell ref="G120:G124"/>
-    <mergeCell ref="H120:H124"/>
-    <mergeCell ref="I120:I124"/>
-    <mergeCell ref="J120:J124"/>
-    <mergeCell ref="K120:K124"/>
-    <mergeCell ref="L120:L124"/>
-    <mergeCell ref="M120:M124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="E125:E127"/>
-    <mergeCell ref="F125:F127"/>
-    <mergeCell ref="G125:G127"/>
-    <mergeCell ref="H125:H127"/>
-    <mergeCell ref="I125:I127"/>
-    <mergeCell ref="J125:J127"/>
-    <mergeCell ref="K125:K127"/>
-    <mergeCell ref="L125:L127"/>
-    <mergeCell ref="M125:M127"/>
-    <mergeCell ref="A128:A128"/>
-    <mergeCell ref="B128:B128"/>
-    <mergeCell ref="C128:C128"/>
-    <mergeCell ref="D128:D128"/>
-    <mergeCell ref="E128:E128"/>
-    <mergeCell ref="F128:F128"/>
-    <mergeCell ref="G128:G128"/>
-    <mergeCell ref="H128:H128"/>
-    <mergeCell ref="I128:I128"/>
-    <mergeCell ref="J128:J128"/>
-    <mergeCell ref="K128:K128"/>
-    <mergeCell ref="L128:L128"/>
-    <mergeCell ref="M128:M128"/>
-    <mergeCell ref="A129:A129"/>
-    <mergeCell ref="B129:B129"/>
-    <mergeCell ref="C129:C129"/>
-    <mergeCell ref="D129:D129"/>
-    <mergeCell ref="E129:E129"/>
-    <mergeCell ref="F129:F129"/>
-    <mergeCell ref="G129:G129"/>
-    <mergeCell ref="H129:H129"/>
-    <mergeCell ref="I129:I129"/>
-    <mergeCell ref="J129:J129"/>
-    <mergeCell ref="K129:K129"/>
-    <mergeCell ref="L129:L129"/>
-    <mergeCell ref="M129:M129"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="J130:J131"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="L130:L131"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="A132:A132"/>
-    <mergeCell ref="B132:B132"/>
-    <mergeCell ref="C132:C132"/>
-    <mergeCell ref="D132:D132"/>
-    <mergeCell ref="E132:E132"/>
-    <mergeCell ref="F132:F132"/>
-    <mergeCell ref="G132:G132"/>
-    <mergeCell ref="H132:H132"/>
-    <mergeCell ref="I132:I132"/>
-    <mergeCell ref="J132:J132"/>
-    <mergeCell ref="K132:K132"/>
-    <mergeCell ref="L132:L132"/>
-    <mergeCell ref="M132:M132"/>
+    <mergeCell ref="A109:A109"/>
+    <mergeCell ref="B109:B109"/>
+    <mergeCell ref="C109:C109"/>
+    <mergeCell ref="D109:D109"/>
+    <mergeCell ref="E109:E109"/>
+    <mergeCell ref="F109:F109"/>
+    <mergeCell ref="G109:G109"/>
+    <mergeCell ref="H109:H109"/>
+    <mergeCell ref="I109:I109"/>
+    <mergeCell ref="J109:J109"/>
+    <mergeCell ref="K109:K109"/>
+    <mergeCell ref="L109:L109"/>
+    <mergeCell ref="M109:M109"/>
+    <mergeCell ref="A110:A110"/>
+    <mergeCell ref="B110:B110"/>
+    <mergeCell ref="C110:C110"/>
+    <mergeCell ref="D110:D110"/>
+    <mergeCell ref="E110:E110"/>
+    <mergeCell ref="F110:F110"/>
+    <mergeCell ref="G110:G110"/>
+    <mergeCell ref="H110:H110"/>
+    <mergeCell ref="I110:I110"/>
+    <mergeCell ref="J110:J110"/>
+    <mergeCell ref="K110:K110"/>
+    <mergeCell ref="L110:L110"/>
+    <mergeCell ref="M110:M110"/>
+    <mergeCell ref="A111:A111"/>
+    <mergeCell ref="B111:B111"/>
+    <mergeCell ref="C111:C111"/>
+    <mergeCell ref="D111:D111"/>
+    <mergeCell ref="E111:E111"/>
+    <mergeCell ref="F111:F111"/>
+    <mergeCell ref="G111:G111"/>
+    <mergeCell ref="H111:H111"/>
+    <mergeCell ref="I111:I111"/>
+    <mergeCell ref="J111:J111"/>
+    <mergeCell ref="K111:K111"/>
+    <mergeCell ref="L111:L111"/>
+    <mergeCell ref="M111:M111"/>
+    <mergeCell ref="A112:A112"/>
+    <mergeCell ref="B112:B112"/>
+    <mergeCell ref="C112:C112"/>
+    <mergeCell ref="D112:D112"/>
+    <mergeCell ref="E112:E112"/>
+    <mergeCell ref="F112:F112"/>
+    <mergeCell ref="G112:G112"/>
+    <mergeCell ref="H112:H112"/>
+    <mergeCell ref="I112:I112"/>
+    <mergeCell ref="J112:J112"/>
+    <mergeCell ref="K112:K112"/>
+    <mergeCell ref="L112:L112"/>
+    <mergeCell ref="M112:M112"/>
+    <mergeCell ref="A113:A113"/>
+    <mergeCell ref="B113:B113"/>
+    <mergeCell ref="C113:C113"/>
+    <mergeCell ref="D113:D113"/>
+    <mergeCell ref="E113:E113"/>
+    <mergeCell ref="F113:F113"/>
+    <mergeCell ref="G113:G113"/>
+    <mergeCell ref="H113:H113"/>
+    <mergeCell ref="I113:I113"/>
+    <mergeCell ref="J113:J113"/>
+    <mergeCell ref="K113:K113"/>
+    <mergeCell ref="L113:L113"/>
+    <mergeCell ref="M113:M113"/>
+    <mergeCell ref="A114:A114"/>
+    <mergeCell ref="B114:B114"/>
+    <mergeCell ref="C114:C114"/>
+    <mergeCell ref="D114:D114"/>
+    <mergeCell ref="E114:E114"/>
+    <mergeCell ref="F114:F114"/>
+    <mergeCell ref="G114:G114"/>
+    <mergeCell ref="H114:H114"/>
+    <mergeCell ref="I114:I114"/>
+    <mergeCell ref="J114:J114"/>
+    <mergeCell ref="K114:K114"/>
+    <mergeCell ref="L114:L114"/>
+    <mergeCell ref="M114:M114"/>
+    <mergeCell ref="A115:A115"/>
+    <mergeCell ref="B115:B115"/>
+    <mergeCell ref="C115:C115"/>
+    <mergeCell ref="D115:D115"/>
+    <mergeCell ref="E115:E115"/>
+    <mergeCell ref="F115:F115"/>
+    <mergeCell ref="G115:G115"/>
+    <mergeCell ref="H115:H115"/>
+    <mergeCell ref="I115:I115"/>
+    <mergeCell ref="J115:J115"/>
+    <mergeCell ref="K115:K115"/>
+    <mergeCell ref="L115:L115"/>
+    <mergeCell ref="M115:M115"/>
+    <mergeCell ref="A116:A116"/>
+    <mergeCell ref="B116:B116"/>
+    <mergeCell ref="C116:C116"/>
+    <mergeCell ref="D116:D116"/>
+    <mergeCell ref="E116:E116"/>
+    <mergeCell ref="F116:F116"/>
+    <mergeCell ref="G116:G116"/>
+    <mergeCell ref="H116:H116"/>
+    <mergeCell ref="I116:I116"/>
+    <mergeCell ref="J116:J116"/>
+    <mergeCell ref="K116:K116"/>
+    <mergeCell ref="L116:L116"/>
+    <mergeCell ref="M116:M116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="G117:G119"/>
+    <mergeCell ref="H117:H119"/>
+    <mergeCell ref="I117:I119"/>
+    <mergeCell ref="J117:J119"/>
+    <mergeCell ref="K117:K119"/>
+    <mergeCell ref="L117:L119"/>
+    <mergeCell ref="M117:M119"/>
+    <mergeCell ref="A120:A120"/>
+    <mergeCell ref="B120:B120"/>
+    <mergeCell ref="C120:C120"/>
+    <mergeCell ref="D120:D120"/>
+    <mergeCell ref="E120:E120"/>
+    <mergeCell ref="F120:F120"/>
+    <mergeCell ref="G120:G120"/>
+    <mergeCell ref="H120:H120"/>
+    <mergeCell ref="I120:I120"/>
+    <mergeCell ref="J120:J120"/>
+    <mergeCell ref="K120:K120"/>
+    <mergeCell ref="L120:L120"/>
+    <mergeCell ref="M120:M120"/>
+    <mergeCell ref="A121:A121"/>
+    <mergeCell ref="B121:B121"/>
+    <mergeCell ref="C121:C121"/>
+    <mergeCell ref="D121:D121"/>
+    <mergeCell ref="E121:E121"/>
+    <mergeCell ref="F121:F121"/>
+    <mergeCell ref="G121:G121"/>
+    <mergeCell ref="H121:H121"/>
+    <mergeCell ref="I121:I121"/>
+    <mergeCell ref="J121:J121"/>
+    <mergeCell ref="K121:K121"/>
+    <mergeCell ref="L121:L121"/>
+    <mergeCell ref="M121:M121"/>
+    <mergeCell ref="A122:A122"/>
+    <mergeCell ref="B122:B122"/>
+    <mergeCell ref="C122:C122"/>
+    <mergeCell ref="D122:D122"/>
+    <mergeCell ref="E122:E122"/>
+    <mergeCell ref="F122:F122"/>
+    <mergeCell ref="G122:G122"/>
+    <mergeCell ref="H122:H122"/>
+    <mergeCell ref="I122:I122"/>
+    <mergeCell ref="J122:J122"/>
+    <mergeCell ref="K122:K122"/>
+    <mergeCell ref="L122:L122"/>
+    <mergeCell ref="M122:M122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="E123:E127"/>
+    <mergeCell ref="F123:F127"/>
+    <mergeCell ref="G123:G127"/>
+    <mergeCell ref="H123:H127"/>
+    <mergeCell ref="I123:I127"/>
+    <mergeCell ref="J123:J127"/>
+    <mergeCell ref="K123:K127"/>
+    <mergeCell ref="L123:L127"/>
+    <mergeCell ref="M123:M127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="F128:F130"/>
+    <mergeCell ref="G128:G130"/>
+    <mergeCell ref="H128:H130"/>
+    <mergeCell ref="I128:I130"/>
+    <mergeCell ref="J128:J130"/>
+    <mergeCell ref="K128:K130"/>
+    <mergeCell ref="L128:L130"/>
+    <mergeCell ref="M128:M130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="M131:M132"/>
     <mergeCell ref="A133:A133"/>
     <mergeCell ref="B133:B133"/>
     <mergeCell ref="C133:C133"/>
@@ -10149,84 +10901,110 @@
     <mergeCell ref="K133:K133"/>
     <mergeCell ref="L133:L133"/>
     <mergeCell ref="M133:M133"/>
-    <mergeCell ref="A134:A134"/>
-    <mergeCell ref="B134:B134"/>
-    <mergeCell ref="C134:C134"/>
-    <mergeCell ref="D134:D134"/>
-    <mergeCell ref="E134:E134"/>
-    <mergeCell ref="F134:F134"/>
-    <mergeCell ref="G134:G134"/>
-    <mergeCell ref="H134:H134"/>
-    <mergeCell ref="I134:I134"/>
-    <mergeCell ref="J134:J134"/>
-    <mergeCell ref="K134:K134"/>
-    <mergeCell ref="L134:L134"/>
-    <mergeCell ref="M134:M134"/>
-    <mergeCell ref="A135:A135"/>
-    <mergeCell ref="B135:B135"/>
-    <mergeCell ref="C135:C135"/>
-    <mergeCell ref="D135:D135"/>
-    <mergeCell ref="E135:E135"/>
-    <mergeCell ref="F135:F135"/>
-    <mergeCell ref="G135:G135"/>
-    <mergeCell ref="H135:H135"/>
-    <mergeCell ref="I135:I135"/>
-    <mergeCell ref="J135:J135"/>
-    <mergeCell ref="K135:K135"/>
-    <mergeCell ref="L135:L135"/>
-    <mergeCell ref="M135:M135"/>
-    <mergeCell ref="A136:A136"/>
-    <mergeCell ref="B136:B136"/>
-    <mergeCell ref="C136:C136"/>
-    <mergeCell ref="D136:D136"/>
-    <mergeCell ref="E136:E136"/>
-    <mergeCell ref="F136:F136"/>
-    <mergeCell ref="G136:G136"/>
-    <mergeCell ref="H136:H136"/>
-    <mergeCell ref="I136:I136"/>
-    <mergeCell ref="J136:J136"/>
-    <mergeCell ref="K136:K136"/>
-    <mergeCell ref="L136:L136"/>
-    <mergeCell ref="M136:M136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="E137:E141"/>
-    <mergeCell ref="F137:F141"/>
-    <mergeCell ref="G137:G141"/>
-    <mergeCell ref="H137:H141"/>
-    <mergeCell ref="I137:I141"/>
-    <mergeCell ref="J137:J141"/>
-    <mergeCell ref="K137:K141"/>
-    <mergeCell ref="L137:L141"/>
-    <mergeCell ref="M137:M141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="J142:J143"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="L142:L143"/>
-    <mergeCell ref="M142:M143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="C144:C148"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="E144:E148"/>
-    <mergeCell ref="F144:F148"/>
-    <mergeCell ref="G144:G148"/>
-    <mergeCell ref="H144:H148"/>
-    <mergeCell ref="I144:I148"/>
-    <mergeCell ref="J144:J148"/>
-    <mergeCell ref="K144:K148"/>
-    <mergeCell ref="L144:L148"/>
-    <mergeCell ref="M144:M148"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="G134:G138"/>
+    <mergeCell ref="H134:H138"/>
+    <mergeCell ref="I134:I138"/>
+    <mergeCell ref="J134:J138"/>
+    <mergeCell ref="K134:K138"/>
+    <mergeCell ref="L134:L138"/>
+    <mergeCell ref="M134:M138"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="F139:F141"/>
+    <mergeCell ref="G139:G141"/>
+    <mergeCell ref="H139:H141"/>
+    <mergeCell ref="I139:I141"/>
+    <mergeCell ref="J139:J141"/>
+    <mergeCell ref="K139:K141"/>
+    <mergeCell ref="L139:L141"/>
+    <mergeCell ref="M139:M141"/>
+    <mergeCell ref="A142:A142"/>
+    <mergeCell ref="B142:B142"/>
+    <mergeCell ref="C142:C142"/>
+    <mergeCell ref="D142:D142"/>
+    <mergeCell ref="E142:E142"/>
+    <mergeCell ref="F142:F142"/>
+    <mergeCell ref="G142:G142"/>
+    <mergeCell ref="H142:H142"/>
+    <mergeCell ref="I142:I142"/>
+    <mergeCell ref="J142:J142"/>
+    <mergeCell ref="K142:K142"/>
+    <mergeCell ref="L142:L142"/>
+    <mergeCell ref="M142:M142"/>
+    <mergeCell ref="A143:A143"/>
+    <mergeCell ref="B143:B143"/>
+    <mergeCell ref="C143:C143"/>
+    <mergeCell ref="D143:D143"/>
+    <mergeCell ref="E143:E143"/>
+    <mergeCell ref="F143:F143"/>
+    <mergeCell ref="G143:G143"/>
+    <mergeCell ref="H143:H143"/>
+    <mergeCell ref="I143:I143"/>
+    <mergeCell ref="J143:J143"/>
+    <mergeCell ref="K143:K143"/>
+    <mergeCell ref="L143:L143"/>
+    <mergeCell ref="M143:M143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="J144:J145"/>
+    <mergeCell ref="K144:K145"/>
+    <mergeCell ref="L144:L145"/>
+    <mergeCell ref="M144:M145"/>
+    <mergeCell ref="A146:A146"/>
+    <mergeCell ref="B146:B146"/>
+    <mergeCell ref="C146:C146"/>
+    <mergeCell ref="D146:D146"/>
+    <mergeCell ref="E146:E146"/>
+    <mergeCell ref="F146:F146"/>
+    <mergeCell ref="G146:G146"/>
+    <mergeCell ref="H146:H146"/>
+    <mergeCell ref="I146:I146"/>
+    <mergeCell ref="J146:J146"/>
+    <mergeCell ref="K146:K146"/>
+    <mergeCell ref="L146:L146"/>
+    <mergeCell ref="M146:M146"/>
+    <mergeCell ref="A147:A147"/>
+    <mergeCell ref="B147:B147"/>
+    <mergeCell ref="C147:C147"/>
+    <mergeCell ref="D147:D147"/>
+    <mergeCell ref="E147:E147"/>
+    <mergeCell ref="F147:F147"/>
+    <mergeCell ref="G147:G147"/>
+    <mergeCell ref="H147:H147"/>
+    <mergeCell ref="I147:I147"/>
+    <mergeCell ref="J147:J147"/>
+    <mergeCell ref="K147:K147"/>
+    <mergeCell ref="L147:L147"/>
+    <mergeCell ref="M147:M147"/>
+    <mergeCell ref="A148:A148"/>
+    <mergeCell ref="B148:B148"/>
+    <mergeCell ref="C148:C148"/>
+    <mergeCell ref="D148:D148"/>
+    <mergeCell ref="E148:E148"/>
+    <mergeCell ref="F148:F148"/>
+    <mergeCell ref="G148:G148"/>
+    <mergeCell ref="H148:H148"/>
+    <mergeCell ref="I148:I148"/>
+    <mergeCell ref="J148:J148"/>
+    <mergeCell ref="K148:K148"/>
+    <mergeCell ref="L148:L148"/>
+    <mergeCell ref="M148:M148"/>
     <mergeCell ref="A149:A149"/>
     <mergeCell ref="B149:B149"/>
     <mergeCell ref="C149:C149"/>
@@ -10240,45 +11018,110 @@
     <mergeCell ref="K149:K149"/>
     <mergeCell ref="L149:L149"/>
     <mergeCell ref="M149:M149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:L151"/>
-    <mergeCell ref="M150:M151"/>
-    <mergeCell ref="A153:A153"/>
-    <mergeCell ref="B153:B153"/>
-    <mergeCell ref="C153:C153"/>
-    <mergeCell ref="D153:D153"/>
-    <mergeCell ref="E153:E153"/>
-    <mergeCell ref="F153:F153"/>
-    <mergeCell ref="G153:G153"/>
-    <mergeCell ref="H153:H153"/>
-    <mergeCell ref="I153:I153"/>
-    <mergeCell ref="J153:J153"/>
-    <mergeCell ref="K153:K153"/>
-    <mergeCell ref="L153:L153"/>
-    <mergeCell ref="M153:M153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="G154:G155"/>
-    <mergeCell ref="H154:H155"/>
-    <mergeCell ref="I154:I155"/>
-    <mergeCell ref="J154:J155"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="L154:L155"/>
-    <mergeCell ref="M154:M155"/>
+    <mergeCell ref="A150:A150"/>
+    <mergeCell ref="B150:B150"/>
+    <mergeCell ref="C150:C150"/>
+    <mergeCell ref="D150:D150"/>
+    <mergeCell ref="E150:E150"/>
+    <mergeCell ref="F150:F150"/>
+    <mergeCell ref="G150:G150"/>
+    <mergeCell ref="H150:H150"/>
+    <mergeCell ref="I150:I150"/>
+    <mergeCell ref="J150:J150"/>
+    <mergeCell ref="K150:K150"/>
+    <mergeCell ref="L150:L150"/>
+    <mergeCell ref="M150:M150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="D151:D155"/>
+    <mergeCell ref="E151:E155"/>
+    <mergeCell ref="F151:F155"/>
+    <mergeCell ref="G151:G155"/>
+    <mergeCell ref="H151:H155"/>
+    <mergeCell ref="I151:I155"/>
+    <mergeCell ref="J151:J155"/>
+    <mergeCell ref="K151:K155"/>
+    <mergeCell ref="L151:L155"/>
+    <mergeCell ref="M151:M155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="G156:G157"/>
+    <mergeCell ref="H156:H157"/>
+    <mergeCell ref="I156:I157"/>
+    <mergeCell ref="J156:J157"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="L156:L157"/>
+    <mergeCell ref="M156:M157"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="B158:B162"/>
+    <mergeCell ref="C158:C162"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="E158:E162"/>
+    <mergeCell ref="F158:F162"/>
+    <mergeCell ref="G158:G162"/>
+    <mergeCell ref="H158:H162"/>
+    <mergeCell ref="I158:I162"/>
+    <mergeCell ref="J158:J162"/>
+    <mergeCell ref="K158:K162"/>
+    <mergeCell ref="L158:L162"/>
+    <mergeCell ref="M158:M162"/>
+    <mergeCell ref="A163:A163"/>
+    <mergeCell ref="B163:B163"/>
+    <mergeCell ref="C163:C163"/>
+    <mergeCell ref="D163:D163"/>
+    <mergeCell ref="E163:E163"/>
+    <mergeCell ref="F163:F163"/>
+    <mergeCell ref="G163:G163"/>
+    <mergeCell ref="H163:H163"/>
+    <mergeCell ref="I163:I163"/>
+    <mergeCell ref="J163:J163"/>
+    <mergeCell ref="K163:K163"/>
+    <mergeCell ref="L163:L163"/>
+    <mergeCell ref="M163:M163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="G164:G165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="K164:K165"/>
+    <mergeCell ref="L164:L165"/>
+    <mergeCell ref="M164:M165"/>
+    <mergeCell ref="A167:A167"/>
+    <mergeCell ref="B167:B167"/>
+    <mergeCell ref="C167:C167"/>
+    <mergeCell ref="D167:D167"/>
+    <mergeCell ref="E167:E167"/>
+    <mergeCell ref="F167:F167"/>
+    <mergeCell ref="G167:G167"/>
+    <mergeCell ref="H167:H167"/>
+    <mergeCell ref="I167:I167"/>
+    <mergeCell ref="J167:J167"/>
+    <mergeCell ref="K167:K167"/>
+    <mergeCell ref="L167:L167"/>
+    <mergeCell ref="M167:M167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="J168:J169"/>
+    <mergeCell ref="K168:K169"/>
+    <mergeCell ref="L168:L169"/>
+    <mergeCell ref="M168:M169"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
